--- a/data_created/risk_score_age_15_44.xlsx
+++ b/data_created/risk_score_age_15_44.xlsx
@@ -3320,7 +3320,7 @@
         <v>212744</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.32029140273643</v>
+        <v>-1.49895934849874</v>
       </c>
     </row>
     <row r="3">
@@ -3337,7 +3337,7 @@
         <v>84937</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.8376068980524</v>
+        <v>-1.9981578953128</v>
       </c>
     </row>
     <row r="4">
@@ -3354,7 +3354,7 @@
         <v>195369</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.92289224155371</v>
+        <v>-2.12249451337059</v>
       </c>
     </row>
     <row r="5">
@@ -3371,7 +3371,7 @@
         <v>190273</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.37673064374075</v>
+        <v>-1.5214098767065</v>
       </c>
     </row>
     <row r="6">
@@ -3388,7 +3388,7 @@
         <v>199525</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.28592228367386</v>
+        <v>-1.42665557459689</v>
       </c>
     </row>
     <row r="7">
@@ -3405,7 +3405,7 @@
         <v>100296</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.60383717936073</v>
+        <v>-1.78346947558729</v>
       </c>
     </row>
     <row r="8">
@@ -3422,7 +3422,7 @@
         <v>294356</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.04184052155778</v>
+        <v>-2.20589431819196</v>
       </c>
     </row>
     <row r="9">
@@ -3439,7 +3439,7 @@
         <v>84034</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.48042536995061</v>
+        <v>-1.62842432051494</v>
       </c>
     </row>
     <row r="10">
@@ -3456,7 +3456,7 @@
         <v>253448</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.80222122847622</v>
+        <v>-1.95722505294282</v>
       </c>
     </row>
     <row r="11">
@@ -3473,7 +3473,7 @@
         <v>242362</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.88505048926993</v>
+        <v>-2.03864890363309</v>
       </c>
     </row>
     <row r="12">
@@ -3490,7 +3490,7 @@
         <v>246708</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.60673374034104</v>
+        <v>-1.76444947733307</v>
       </c>
     </row>
     <row r="13">
@@ -3507,7 +3507,7 @@
         <v>496395</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.74542501867721</v>
+        <v>-1.90379913622224</v>
       </c>
     </row>
     <row r="14">
@@ -3524,7 +3524,7 @@
         <v>168174</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.86509549714426</v>
+        <v>-2.01710688962877</v>
       </c>
     </row>
     <row r="15">
@@ -3541,7 +3541,7 @@
         <v>1626085</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.56022554565879</v>
+        <v>-1.71966979115838</v>
       </c>
     </row>
     <row r="16">
@@ -3558,7 +3558,7 @@
         <v>249947</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.94812102421195</v>
+        <v>-2.11065354764408</v>
       </c>
     </row>
     <row r="17">
@@ -3575,7 +3575,7 @@
         <v>134079</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.82958646293554</v>
+        <v>-1.9912221338131</v>
       </c>
     </row>
     <row r="18">
@@ -3592,7 +3592,7 @@
         <v>185025</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.77051905294305</v>
+        <v>-1.93462042170431</v>
       </c>
     </row>
     <row r="19">
@@ -3609,7 +3609,7 @@
         <v>535676</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.47179468672611</v>
+        <v>-1.59472673785228</v>
       </c>
     </row>
     <row r="20">
@@ -3626,7 +3626,7 @@
         <v>95494</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.35825543476608</v>
+        <v>-1.48765415460054</v>
       </c>
     </row>
     <row r="21">
@@ -3643,7 +3643,7 @@
         <v>85258</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.83315189476357</v>
+        <v>-1.97199818077356</v>
       </c>
     </row>
     <row r="22">
@@ -3660,7 +3660,7 @@
         <v>88028</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.62401351683071</v>
+        <v>-1.76305212980925</v>
       </c>
     </row>
     <row r="23">
@@ -3677,7 +3677,7 @@
         <v>75867</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.69361149777893</v>
+        <v>-1.83598625747609</v>
       </c>
     </row>
     <row r="24">
@@ -3694,7 +3694,7 @@
         <v>198594</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.55302225489119</v>
+        <v>-1.72058825534025</v>
       </c>
     </row>
     <row r="25">
@@ -3711,7 +3711,7 @@
         <v>82397</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.54714600438304</v>
+        <v>-1.65825343791712</v>
       </c>
     </row>
     <row r="26">
@@ -3728,7 +3728,7 @@
         <v>79188</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.85584457746564</v>
+        <v>-1.9717965294715</v>
       </c>
     </row>
     <row r="27">
@@ -3745,7 +3745,7 @@
         <v>85391</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.48723202791427</v>
+        <v>-1.57355164280132</v>
       </c>
     </row>
     <row r="28">
@@ -3762,7 +3762,7 @@
         <v>352456</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.5098037211912</v>
+        <v>-1.65027464020861</v>
       </c>
     </row>
     <row r="29">
@@ -3779,7 +3779,7 @@
         <v>111683</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.66508863297134</v>
+        <v>-1.79062160644121</v>
       </c>
     </row>
     <row r="30">
@@ -3796,7 +3796,7 @@
         <v>73071</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.52196146570239</v>
+        <v>-1.63651797031861</v>
       </c>
     </row>
     <row r="31">
@@ -3813,7 +3813,7 @@
         <v>380887</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.39135788894644</v>
+        <v>-1.50986822844158</v>
       </c>
     </row>
     <row r="32">
@@ -3830,7 +3830,7 @@
         <v>77772</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.29664011760851</v>
+        <v>-1.37854221706188</v>
       </c>
     </row>
     <row r="33">
@@ -3847,7 +3847,7 @@
         <v>122334</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.86795501566826</v>
+        <v>-2.00152489776167</v>
       </c>
     </row>
     <row r="34">
@@ -3864,7 +3864,7 @@
         <v>83026</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.61990190716936</v>
+        <v>-1.7617599366078</v>
       </c>
     </row>
     <row r="35">
@@ -3881,7 +3881,7 @@
         <v>104823</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.74577338388863</v>
+        <v>-1.85302107764761</v>
       </c>
     </row>
     <row r="36">
@@ -3898,7 +3898,7 @@
         <v>115326</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.94702357307436</v>
+        <v>-2.09164087795024</v>
       </c>
     </row>
     <row r="37">
@@ -3915,7 +3915,7 @@
         <v>92736</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.24830815151837</v>
+        <v>-1.30409636137037</v>
       </c>
     </row>
     <row r="38">
@@ -3932,7 +3932,7 @@
         <v>93297</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.79923883109349</v>
+        <v>-1.91718714293471</v>
       </c>
     </row>
     <row r="39">
@@ -3949,7 +3949,7 @@
         <v>89798</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.32819031085634</v>
+        <v>-1.45596676568653</v>
       </c>
     </row>
     <row r="40">
@@ -3966,7 +3966,7 @@
         <v>80400</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.58028439588866</v>
+        <v>-1.67173976160089</v>
       </c>
     </row>
     <row r="41">
@@ -3983,7 +3983,7 @@
         <v>270450</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.46134180683397</v>
+        <v>-1.59297281240028</v>
       </c>
     </row>
     <row r="42">
@@ -4000,7 +4000,7 @@
         <v>87924</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.71377943171341</v>
+        <v>-1.84191656112509</v>
       </c>
     </row>
     <row r="43">
@@ -4017,7 +4017,7 @@
         <v>109700</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.61428324492918</v>
+        <v>-1.71647566190226</v>
       </c>
     </row>
     <row r="44">
@@ -4034,7 +4034,7 @@
         <v>97626</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.03645367277558</v>
+        <v>-1.16103189674275</v>
       </c>
     </row>
     <row r="45">
@@ -4051,7 +4051,7 @@
         <v>129778</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.91347141396924</v>
+        <v>-2.05212810098411</v>
       </c>
     </row>
     <row r="46">
@@ -4068,7 +4068,7 @@
         <v>167843</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.40733903788626</v>
+        <v>-1.51715608253397</v>
       </c>
     </row>
     <row r="47">
@@ -4085,7 +4085,7 @@
         <v>113821</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.72141061680715</v>
+        <v>-1.86597535383934</v>
       </c>
     </row>
     <row r="48">
@@ -4102,7 +4102,7 @@
         <v>107091</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.90393866123025</v>
+        <v>-2.03493915205427</v>
       </c>
     </row>
     <row r="49">
@@ -4119,7 +4119,7 @@
         <v>113089</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.31304231139419</v>
+        <v>-1.41512136119138</v>
       </c>
     </row>
     <row r="50">
@@ -4136,7 +4136,7 @@
         <v>103906</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.79867833617771</v>
+        <v>-1.95243267641214</v>
       </c>
     </row>
     <row r="51">
@@ -4153,7 +4153,7 @@
         <v>171831</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.61240774527335</v>
+        <v>-1.70138509556273</v>
       </c>
     </row>
     <row r="52">
@@ -4170,7 +4170,7 @@
         <v>151979</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.53812864135081</v>
+        <v>-1.68236232041115</v>
       </c>
     </row>
     <row r="53">
@@ -4187,7 +4187,7 @@
         <v>116280</v>
       </c>
       <c r="E53" t="n">
-        <v>-1.60029286457172</v>
+        <v>-1.72770442806957</v>
       </c>
     </row>
     <row r="54">
@@ -4204,7 +4204,7 @@
         <v>78038</v>
       </c>
       <c r="E54" t="n">
-        <v>-1.7540770942131</v>
+        <v>-1.86704553344028</v>
       </c>
     </row>
     <row r="55">
@@ -4221,7 +4221,7 @@
         <v>211820</v>
       </c>
       <c r="E55" t="n">
-        <v>-1.24151708585866</v>
+        <v>-1.36381665677233</v>
       </c>
     </row>
     <row r="56">
@@ -4238,7 +4238,7 @@
         <v>234954</v>
       </c>
       <c r="E56" t="n">
-        <v>-1.80809084319683</v>
+        <v>-1.93613366815615</v>
       </c>
     </row>
     <row r="57">
@@ -4255,7 +4255,7 @@
         <v>527422</v>
       </c>
       <c r="E57" t="n">
-        <v>-1.38597517890576</v>
+        <v>-1.50664622732884</v>
       </c>
     </row>
     <row r="58">
@@ -4272,7 +4272,7 @@
         <v>140402</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.65094443593428</v>
+        <v>-1.7915413518481</v>
       </c>
     </row>
     <row r="59">
@@ -4289,7 +4289,7 @@
         <v>174228</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.60702013115552</v>
+        <v>-1.73585657143016</v>
       </c>
     </row>
     <row r="60">
@@ -4306,7 +4306,7 @@
         <v>203066</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.79224320223139</v>
+        <v>-1.90267223319086</v>
       </c>
     </row>
     <row r="61">
@@ -4323,7 +4323,7 @@
         <v>87863</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.19349417861699</v>
+        <v>-1.29758754567407</v>
       </c>
     </row>
     <row r="62">
@@ -4340,7 +4340,7 @@
         <v>160485</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.55445539453254</v>
+        <v>-1.67022613158397</v>
       </c>
     </row>
     <row r="63">
@@ -4357,7 +4357,7 @@
         <v>85153</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.43718090647445</v>
+        <v>-1.56231799586425</v>
       </c>
     </row>
     <row r="64">
@@ -4374,7 +4374,7 @@
         <v>94867</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.3182018131067</v>
+        <v>-1.44511490885228</v>
       </c>
     </row>
     <row r="65">
@@ -4391,7 +4391,7 @@
         <v>201882</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.86032968121702</v>
+        <v>-1.99861356005377</v>
       </c>
     </row>
     <row r="66">
@@ -4408,7 +4408,7 @@
         <v>89784</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.37734656727346</v>
+        <v>-1.48924351114194</v>
       </c>
     </row>
     <row r="67">
@@ -4425,7 +4425,7 @@
         <v>110611</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.08061617191106</v>
+        <v>-1.17442174076169</v>
       </c>
     </row>
     <row r="68">
@@ -4442,7 +4442,7 @@
         <v>277436</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.89896717257361</v>
+        <v>-2.03005130249289</v>
       </c>
     </row>
     <row r="69">
@@ -4459,7 +4459,7 @@
         <v>84308</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.8371716333714</v>
+        <v>-1.96890051884074</v>
       </c>
     </row>
     <row r="70">
@@ -4476,7 +4476,7 @@
         <v>80971</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.53465091560448</v>
+        <v>-1.61863689757628</v>
       </c>
     </row>
     <row r="71">
@@ -4493,7 +4493,7 @@
         <v>160323</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.31778052676592</v>
+        <v>-1.43251902708642</v>
       </c>
     </row>
     <row r="72">
@@ -4510,7 +4510,7 @@
         <v>90290</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.84753670071723</v>
+        <v>-1.98988290577879</v>
       </c>
     </row>
     <row r="73">
@@ -4527,7 +4527,7 @@
         <v>469459</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.42727408826697</v>
+        <v>-1.52483715730161</v>
       </c>
     </row>
     <row r="74">
@@ -4544,7 +4544,7 @@
         <v>3999742</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.40072682784111</v>
+        <v>-1.50605166608926</v>
       </c>
     </row>
     <row r="75">
@@ -4561,7 +4561,7 @@
         <v>71115</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.1576993504484</v>
+        <v>-1.27062301404902</v>
       </c>
     </row>
     <row r="76">
@@ -4578,7 +4578,7 @@
         <v>79275</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.51044026109591</v>
+        <v>-1.62059940382868</v>
       </c>
     </row>
     <row r="77">
@@ -4595,7 +4595,7 @@
         <v>90599</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.52241619074373</v>
+        <v>-1.63393273605361</v>
       </c>
     </row>
     <row r="78">
@@ -4612,7 +4612,7 @@
         <v>83100</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.38102349333804</v>
+        <v>-1.4969444686358</v>
       </c>
     </row>
     <row r="79">
@@ -4629,7 +4629,7 @@
         <v>78108</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.94984483023145</v>
+        <v>-2.08648737216875</v>
       </c>
     </row>
     <row r="80">
@@ -4646,7 +4646,7 @@
         <v>96009</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.8744298165897</v>
+        <v>-2.01387432447792</v>
       </c>
     </row>
     <row r="81">
@@ -4663,7 +4663,7 @@
         <v>214220</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.51838212333549</v>
+        <v>-1.61949752961254</v>
       </c>
     </row>
     <row r="82">
@@ -4680,7 +4680,7 @@
         <v>207211</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.21781111392833</v>
+        <v>-1.32426507087751</v>
       </c>
     </row>
     <row r="83">
@@ -4697,7 +4697,7 @@
         <v>81443</v>
       </c>
       <c r="E83" t="n">
-        <v>-2.01840569850505</v>
+        <v>-2.16784826913411</v>
       </c>
     </row>
     <row r="84">
@@ -4714,7 +4714,7 @@
         <v>113316</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.60640140741544</v>
+        <v>-1.70356420762545</v>
       </c>
     </row>
     <row r="85">
@@ -4731,7 +4731,7 @@
         <v>79782</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.9002060693981</v>
+        <v>-2.05390097657112</v>
       </c>
     </row>
     <row r="86">
@@ -4748,7 +4748,7 @@
         <v>86151</v>
       </c>
       <c r="E86" t="n">
-        <v>-2.02971791318566</v>
+        <v>-2.17606272119868</v>
       </c>
     </row>
     <row r="87">
@@ -4765,7 +4765,7 @@
         <v>106086</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.27100259909859</v>
+        <v>-1.37723470405554</v>
       </c>
     </row>
     <row r="88">
@@ -4782,7 +4782,7 @@
         <v>425204</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.54522218399663</v>
+        <v>-1.66953631429429</v>
       </c>
     </row>
     <row r="89">
@@ -4799,7 +4799,7 @@
         <v>176208</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.68452876394467</v>
+        <v>-1.81708689501495</v>
       </c>
     </row>
     <row r="90">
@@ -4816,7 +4816,7 @@
         <v>175850</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.25684119430973</v>
+        <v>-1.37248549776176</v>
       </c>
     </row>
     <row r="91">
@@ -4833,7 +4833,7 @@
         <v>140557</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.69272389585715</v>
+        <v>-1.83300062705366</v>
       </c>
     </row>
     <row r="92">
@@ -4850,7 +4850,7 @@
         <v>210038</v>
       </c>
       <c r="E92" t="n">
-        <v>-1.401738938972</v>
+        <v>-1.54668763001773</v>
       </c>
     </row>
     <row r="93">
@@ -4867,7 +4867,7 @@
         <v>157507</v>
       </c>
       <c r="E93" t="n">
-        <v>-1.28821130016194</v>
+        <v>-1.39595190432546</v>
       </c>
     </row>
     <row r="94">
@@ -4884,7 +4884,7 @@
         <v>142632</v>
       </c>
       <c r="E94" t="n">
-        <v>-1.5081534107202</v>
+        <v>-1.60535413195317</v>
       </c>
     </row>
     <row r="95">
@@ -4901,7 +4901,7 @@
         <v>77895</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.16756169197938</v>
+        <v>-1.29170044534442</v>
       </c>
     </row>
     <row r="96">
@@ -4918,7 +4918,7 @@
         <v>83007</v>
       </c>
       <c r="E96" t="n">
-        <v>-1.88500293078403</v>
+        <v>-2.02699679771205</v>
       </c>
     </row>
     <row r="97">
@@ -4935,7 +4935,7 @@
         <v>152946</v>
       </c>
       <c r="E97" t="n">
-        <v>-1.26436127983111</v>
+        <v>-1.37224395135307</v>
       </c>
     </row>
     <row r="98">
@@ -4952,7 +4952,7 @@
         <v>177446</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.46575366683341</v>
+        <v>-1.55647206542525</v>
       </c>
     </row>
     <row r="99">
@@ -4969,7 +4969,7 @@
         <v>91788</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.97288470406643</v>
+        <v>-2.13517953624056</v>
       </c>
     </row>
     <row r="100">
@@ -4986,7 +4986,7 @@
         <v>71562</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.57303407669657</v>
+        <v>-1.68516857016665</v>
       </c>
     </row>
     <row r="101">
@@ -5003,7 +5003,7 @@
         <v>67908</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.72405125310594</v>
+        <v>-1.82012544509078</v>
       </c>
     </row>
     <row r="102">
@@ -5020,7 +5020,7 @@
         <v>86683</v>
       </c>
       <c r="E102" t="n">
-        <v>-1.84778774737955</v>
+        <v>-1.99509991223157</v>
       </c>
     </row>
     <row r="103">
@@ -5037,7 +5037,7 @@
         <v>103555</v>
       </c>
       <c r="E103" t="n">
-        <v>-1.17677620770716</v>
+        <v>-1.301855572875</v>
       </c>
     </row>
     <row r="104">
@@ -5054,7 +5054,7 @@
         <v>110037</v>
       </c>
       <c r="E104" t="n">
-        <v>-1.6529590820373</v>
+        <v>-1.79228454471787</v>
       </c>
     </row>
     <row r="105">
@@ -5071,7 +5071,7 @@
         <v>327722</v>
       </c>
       <c r="E105" t="n">
-        <v>-1.37771326683484</v>
+        <v>-1.49148945721074</v>
       </c>
     </row>
     <row r="106">
@@ -5088,7 +5088,7 @@
         <v>135325</v>
       </c>
       <c r="E106" t="n">
-        <v>-2.36622029287852</v>
+        <v>-2.51791678154837</v>
       </c>
     </row>
     <row r="107">
@@ -5105,7 +5105,7 @@
         <v>501890</v>
       </c>
       <c r="E107" t="n">
-        <v>-1.49033437897388</v>
+        <v>-1.58441107758844</v>
       </c>
     </row>
     <row r="108">
@@ -5122,7 +5122,7 @@
         <v>157594</v>
       </c>
       <c r="E108" t="n">
-        <v>-1.24599335400151</v>
+        <v>-1.36709143748451</v>
       </c>
     </row>
     <row r="109">
@@ -5139,7 +5139,7 @@
         <v>216983</v>
       </c>
       <c r="E109" t="n">
-        <v>-1.21801641979631</v>
+        <v>-1.34024192815159</v>
       </c>
     </row>
     <row r="110">
@@ -5156,7 +5156,7 @@
         <v>110784</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.67939597697372</v>
+        <v>-1.82424356931747</v>
       </c>
     </row>
     <row r="111">
@@ -5173,7 +5173,7 @@
         <v>1419488</v>
       </c>
       <c r="E111" t="n">
-        <v>-1.69669703781974</v>
+        <v>-1.83549430994382</v>
       </c>
     </row>
     <row r="112">
@@ -5190,7 +5190,7 @@
         <v>884363</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.81800325561556</v>
+        <v>-1.95297016074442</v>
       </c>
     </row>
     <row r="113">
@@ -5207,7 +5207,7 @@
         <v>1035353</v>
       </c>
       <c r="E113" t="n">
-        <v>-1.84729176779566</v>
+        <v>-1.98488690603183</v>
       </c>
     </row>
     <row r="114">
@@ -5224,7 +5224,7 @@
         <v>90555</v>
       </c>
       <c r="E114" t="n">
-        <v>-1.60258173281701</v>
+        <v>-1.72756779361327</v>
       </c>
     </row>
     <row r="115">
@@ -5241,7 +5241,7 @@
         <v>96188</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.62406227306339</v>
+        <v>-1.76423219373382</v>
       </c>
     </row>
     <row r="116">
@@ -5258,7 +5258,7 @@
         <v>104733</v>
       </c>
       <c r="E116" t="n">
-        <v>-2.03162660244826</v>
+        <v>-2.16382135173699</v>
       </c>
     </row>
     <row r="117">
@@ -5275,7 +5275,7 @@
         <v>75922</v>
       </c>
       <c r="E117" t="n">
-        <v>-2.1099164639513</v>
+        <v>-2.24122670628876</v>
       </c>
     </row>
     <row r="118">
@@ -5292,7 +5292,7 @@
         <v>334135</v>
       </c>
       <c r="E118" t="n">
-        <v>-1.35555407360728</v>
+        <v>-1.50872955051266</v>
       </c>
     </row>
     <row r="119">
@@ -5309,7 +5309,7 @@
         <v>127131</v>
       </c>
       <c r="E119" t="n">
-        <v>-1.99187274121588</v>
+        <v>-2.142865716333</v>
       </c>
     </row>
     <row r="120">
@@ -5326,7 +5326,7 @@
         <v>210886</v>
       </c>
       <c r="E120" t="n">
-        <v>-1.61118131059677</v>
+        <v>-1.70970315003105</v>
       </c>
     </row>
     <row r="121">
@@ -5343,7 +5343,7 @@
         <v>107018</v>
       </c>
       <c r="E121" t="n">
-        <v>-1.25883872258279</v>
+        <v>-1.37539373523944</v>
       </c>
     </row>
     <row r="122">
@@ -5360,7 +5360,7 @@
         <v>92298</v>
       </c>
       <c r="E122" t="n">
-        <v>-1.81924422410397</v>
+        <v>-1.91966401204898</v>
       </c>
     </row>
     <row r="123">
@@ -5377,7 +5377,7 @@
         <v>175269</v>
       </c>
       <c r="E123" t="n">
-        <v>-1.72503545159278</v>
+        <v>-1.86598061966762</v>
       </c>
     </row>
     <row r="124">
@@ -5394,7 +5394,7 @@
         <v>126875</v>
       </c>
       <c r="E124" t="n">
-        <v>-1.8237972314312</v>
+        <v>-1.97066835546339</v>
       </c>
     </row>
     <row r="125">
@@ -5411,7 +5411,7 @@
         <v>310476</v>
       </c>
       <c r="E125" t="n">
-        <v>-1.37197299389902</v>
+        <v>-1.47356118196152</v>
       </c>
     </row>
     <row r="126">
@@ -5428,7 +5428,7 @@
         <v>153656</v>
       </c>
       <c r="E126" t="n">
-        <v>-2.01655719381702</v>
+        <v>-2.16190133896621</v>
       </c>
     </row>
     <row r="127">
@@ -5445,7 +5445,7 @@
         <v>114318</v>
       </c>
       <c r="E127" t="n">
-        <v>-1.63544052798134</v>
+        <v>-1.73260965920701</v>
       </c>
     </row>
     <row r="128">
@@ -5462,7 +5462,7 @@
         <v>128972</v>
       </c>
       <c r="E128" t="n">
-        <v>-1.88592324757264</v>
+        <v>-2.02674487953608</v>
       </c>
     </row>
     <row r="129">
@@ -5479,7 +5479,7 @@
         <v>146745</v>
       </c>
       <c r="E129" t="n">
-        <v>-1.69075077390853</v>
+        <v>-1.78409370034981</v>
       </c>
     </row>
     <row r="130">
@@ -5496,7 +5496,7 @@
         <v>90886</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.48417920020131</v>
+        <v>-1.57875091883822</v>
       </c>
     </row>
     <row r="131">
@@ -5513,7 +5513,7 @@
         <v>73562</v>
       </c>
       <c r="E131" t="n">
-        <v>-1.55522604379934</v>
+        <v>-1.65862443636817</v>
       </c>
     </row>
     <row r="132">
@@ -5530,7 +5530,7 @@
         <v>80502</v>
       </c>
       <c r="E132" t="n">
-        <v>-1.58685808195485</v>
+        <v>-1.71281141009456</v>
       </c>
     </row>
     <row r="133">
@@ -5547,7 +5547,7 @@
         <v>75344</v>
       </c>
       <c r="E133" t="n">
-        <v>-1.66103936966736</v>
+        <v>-1.78725085076174</v>
       </c>
     </row>
     <row r="134">
@@ -5564,7 +5564,7 @@
         <v>76985</v>
       </c>
       <c r="E134" t="n">
-        <v>-1.50570407515467</v>
+        <v>-1.60964948556062</v>
       </c>
     </row>
     <row r="135">
@@ -5581,7 +5581,7 @@
         <v>100023</v>
       </c>
       <c r="E135" t="n">
-        <v>-1.72912372377294</v>
+        <v>-1.85713218478459</v>
       </c>
     </row>
     <row r="136">
@@ -5598,7 +5598,7 @@
         <v>122086</v>
       </c>
       <c r="E136" t="n">
-        <v>-1.52927367157259</v>
+        <v>-1.65948778941336</v>
       </c>
     </row>
     <row r="137">
@@ -5615,7 +5615,7 @@
         <v>122465</v>
       </c>
       <c r="E137" t="n">
-        <v>-1.2528965677538</v>
+        <v>-1.36435413509812</v>
       </c>
     </row>
     <row r="138">
@@ -5632,7 +5632,7 @@
         <v>133009</v>
       </c>
       <c r="E138" t="n">
-        <v>-1.47449691201772</v>
+        <v>-1.59385610450698</v>
       </c>
     </row>
     <row r="139">
@@ -5649,7 +5649,7 @@
         <v>101557</v>
       </c>
       <c r="E139" t="n">
-        <v>-1.59475896631012</v>
+        <v>-1.74358439632711</v>
       </c>
     </row>
     <row r="140">
@@ -5666,7 +5666,7 @@
         <v>107623</v>
       </c>
       <c r="E140" t="n">
-        <v>-1.40039757570443</v>
+        <v>-1.4921669184477</v>
       </c>
     </row>
     <row r="141">
@@ -5683,7 +5683,7 @@
         <v>91548</v>
       </c>
       <c r="E141" t="n">
-        <v>-1.7215374962553</v>
+        <v>-1.86262248941709</v>
       </c>
     </row>
     <row r="142">
@@ -5700,7 +5700,7 @@
         <v>86841</v>
       </c>
       <c r="E142" t="n">
-        <v>-1.37357039423947</v>
+        <v>-1.47221857630505</v>
       </c>
     </row>
     <row r="143">
@@ -5717,7 +5717,7 @@
         <v>118300</v>
       </c>
       <c r="E143" t="n">
-        <v>-2.41916767320001</v>
+        <v>-2.58104445262721</v>
       </c>
     </row>
     <row r="144">
@@ -5734,7 +5734,7 @@
         <v>367250</v>
       </c>
       <c r="E144" t="n">
-        <v>-1.81000472636036</v>
+        <v>-1.95453497950466</v>
       </c>
     </row>
     <row r="145">
@@ -5751,7 +5751,7 @@
         <v>107128</v>
       </c>
       <c r="E145" t="n">
-        <v>-2.26354670515586</v>
+        <v>-2.44441875730233</v>
       </c>
     </row>
     <row r="146">
@@ -5768,7 +5768,7 @@
         <v>110277</v>
       </c>
       <c r="E146" t="n">
-        <v>-2.14889922077666</v>
+        <v>-2.30554961286051</v>
       </c>
     </row>
     <row r="147">
@@ -5785,7 +5785,7 @@
         <v>464470</v>
       </c>
       <c r="E147" t="n">
-        <v>-2.10105199896772</v>
+        <v>-2.28271583329809</v>
       </c>
     </row>
     <row r="148">
@@ -5802,7 +5802,7 @@
         <v>704621</v>
       </c>
       <c r="E148" t="n">
-        <v>-1.62799588301567</v>
+        <v>-1.73614476959489</v>
       </c>
     </row>
     <row r="149">
@@ -5819,7 +5819,7 @@
         <v>165089</v>
       </c>
       <c r="E149" t="n">
-        <v>-2.24821085905381</v>
+        <v>-2.43987531259741</v>
       </c>
     </row>
     <row r="150">
@@ -5836,7 +5836,7 @@
         <v>105457</v>
       </c>
       <c r="E150" t="n">
-        <v>-1.90595727394837</v>
+        <v>-2.0746585494324</v>
       </c>
     </row>
     <row r="151">
@@ -5853,7 +5853,7 @@
         <v>154952</v>
       </c>
       <c r="E151" t="n">
-        <v>-2.28374416188267</v>
+        <v>-2.43931910907766</v>
       </c>
     </row>
     <row r="152">
@@ -5870,7 +5870,7 @@
         <v>94145</v>
       </c>
       <c r="E152" t="n">
-        <v>-2.14492962797783</v>
+        <v>-2.32146607213185</v>
       </c>
     </row>
     <row r="153">
@@ -5887,7 +5887,7 @@
         <v>76702</v>
       </c>
       <c r="E153" t="n">
-        <v>-2.26026526388253</v>
+        <v>-2.44720922823971</v>
       </c>
     </row>
     <row r="154">
@@ -5904,7 +5904,7 @@
         <v>111121</v>
       </c>
       <c r="E154" t="n">
-        <v>-1.46883717062783</v>
+        <v>-1.59292714941958</v>
       </c>
     </row>
     <row r="155">
@@ -5921,7 +5921,7 @@
         <v>136992</v>
       </c>
       <c r="E155" t="n">
-        <v>-1.70045814775502</v>
+        <v>-1.84684991625981</v>
       </c>
     </row>
     <row r="156">
@@ -5938,7 +5938,7 @@
         <v>112814</v>
       </c>
       <c r="E156" t="n">
-        <v>-1.82663964695392</v>
+        <v>-1.98203960104229</v>
       </c>
     </row>
     <row r="157">
@@ -5955,7 +5955,7 @@
         <v>146582</v>
       </c>
       <c r="E157" t="n">
-        <v>-1.50233201290321</v>
+        <v>-1.64284675613785</v>
       </c>
     </row>
     <row r="158">
@@ -5972,7 +5972,7 @@
         <v>85243</v>
       </c>
       <c r="E158" t="n">
-        <v>-1.80957901778211</v>
+        <v>-1.95707680203015</v>
       </c>
     </row>
     <row r="159">
@@ -5989,7 +5989,7 @@
         <v>123420</v>
       </c>
       <c r="E159" t="n">
-        <v>-1.24396475657437</v>
+        <v>-1.39322002498788</v>
       </c>
     </row>
     <row r="160">
@@ -6006,7 +6006,7 @@
         <v>72718</v>
       </c>
       <c r="E160" t="n">
-        <v>-1.54241406504863</v>
+        <v>-1.69239608953899</v>
       </c>
     </row>
     <row r="161">
@@ -6023,7 +6023,7 @@
         <v>131005</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.43990917862315</v>
+        <v>-1.60172585207172</v>
       </c>
     </row>
     <row r="162">
@@ -6040,7 +6040,7 @@
         <v>89000</v>
       </c>
       <c r="E162" t="n">
-        <v>-1.89682256131951</v>
+        <v>-2.04921802050218</v>
       </c>
     </row>
     <row r="163">
@@ -6057,7 +6057,7 @@
         <v>130835</v>
       </c>
       <c r="E163" t="n">
-        <v>-1.919982656775</v>
+        <v>-2.07070292445837</v>
       </c>
     </row>
     <row r="164">
@@ -6074,7 +6074,7 @@
         <v>108642</v>
       </c>
       <c r="E164" t="n">
-        <v>-1.50611484296363</v>
+        <v>-1.66014618071573</v>
       </c>
     </row>
     <row r="165">
@@ -6091,7 +6091,7 @@
         <v>693972</v>
       </c>
       <c r="E165" t="n">
-        <v>-1.44940312135194</v>
+        <v>-1.55204236141813</v>
       </c>
     </row>
     <row r="166">
@@ -6108,7 +6108,7 @@
         <v>98153</v>
       </c>
       <c r="E166" t="n">
-        <v>-2.11331109696972</v>
+        <v>-2.26812695217563</v>
       </c>
     </row>
     <row r="167">
@@ -6125,7 +6125,7 @@
         <v>77704</v>
       </c>
       <c r="E167" t="n">
-        <v>-1.74862822807219</v>
+        <v>-1.91051410243332</v>
       </c>
     </row>
     <row r="168">
@@ -6142,7 +6142,7 @@
         <v>183356</v>
       </c>
       <c r="E168" t="n">
-        <v>-2.01318229598034</v>
+        <v>-2.18711503665209</v>
       </c>
     </row>
     <row r="169">
@@ -6159,7 +6159,7 @@
         <v>115501</v>
       </c>
       <c r="E169" t="n">
-        <v>-1.98555382225184</v>
+        <v>-2.14028938286983</v>
       </c>
     </row>
     <row r="170">
@@ -6176,7 +6176,7 @@
         <v>133058</v>
       </c>
       <c r="E170" t="n">
-        <v>-1.58982524015276</v>
+        <v>-1.71978052759732</v>
       </c>
     </row>
     <row r="171">
@@ -6193,7 +6193,7 @@
         <v>105146</v>
       </c>
       <c r="E171" t="n">
-        <v>-1.624712561346</v>
+        <v>-1.76111753496413</v>
       </c>
     </row>
     <row r="172">
@@ -6210,7 +6210,7 @@
         <v>80572</v>
       </c>
       <c r="E172" t="n">
-        <v>-1.59455014699388</v>
+        <v>-1.74799759073353</v>
       </c>
     </row>
     <row r="173">
@@ -6227,7 +6227,7 @@
         <v>90743</v>
       </c>
       <c r="E173" t="n">
-        <v>-1.74617305931257</v>
+        <v>-1.92794914036561</v>
       </c>
     </row>
     <row r="174">
@@ -6244,7 +6244,7 @@
         <v>180071</v>
       </c>
       <c r="E174" t="n">
-        <v>-1.52783919641156</v>
+        <v>-1.69207731960154</v>
       </c>
     </row>
     <row r="175">
@@ -6261,7 +6261,7 @@
         <v>132253</v>
       </c>
       <c r="E175" t="n">
-        <v>-1.71743459494718</v>
+        <v>-1.86929468260279</v>
       </c>
     </row>
     <row r="176">
@@ -6278,7 +6278,7 @@
         <v>153625</v>
       </c>
       <c r="E176" t="n">
-        <v>-1.4754688006717</v>
+        <v>-1.62006962343723</v>
       </c>
     </row>
     <row r="177">
@@ -6295,7 +6295,7 @@
         <v>892064</v>
       </c>
       <c r="E177" t="n">
-        <v>-1.52943713415167</v>
+        <v>-1.65546947321726</v>
       </c>
     </row>
     <row r="178">
@@ -6312,7 +6312,7 @@
         <v>108051</v>
       </c>
       <c r="E178" t="n">
-        <v>-1.52327291431715</v>
+        <v>-1.66302681835385</v>
       </c>
     </row>
     <row r="179">
@@ -6329,7 +6329,7 @@
         <v>84768</v>
       </c>
       <c r="E179" t="n">
-        <v>-2.0611230092955</v>
+        <v>-2.24031529037253</v>
       </c>
     </row>
     <row r="180">
@@ -6346,7 +6346,7 @@
         <v>71976</v>
       </c>
       <c r="E180" t="n">
-        <v>-1.21874344043946</v>
+        <v>-1.36791052636043</v>
       </c>
     </row>
     <row r="181">
@@ -6363,7 +6363,7 @@
         <v>82003</v>
       </c>
       <c r="E181" t="n">
-        <v>-2.04161603143659</v>
+        <v>-2.22786864441495</v>
       </c>
     </row>
     <row r="182">
@@ -6380,7 +6380,7 @@
         <v>463354</v>
       </c>
       <c r="E182" t="n">
-        <v>-1.14309838602117</v>
+        <v>-1.27052146415559</v>
       </c>
     </row>
     <row r="183">
@@ -6397,7 +6397,7 @@
         <v>92319</v>
       </c>
       <c r="E183" t="n">
-        <v>-1.40914121319186</v>
+        <v>-1.52980935927795</v>
       </c>
     </row>
     <row r="184">
@@ -6414,7 +6414,7 @@
         <v>140323</v>
       </c>
       <c r="E184" t="n">
-        <v>-1.27289018480717</v>
+        <v>-1.41036737423504</v>
       </c>
     </row>
     <row r="185">
@@ -6431,7 +6431,7 @@
         <v>280258</v>
       </c>
       <c r="E185" t="n">
-        <v>-1.40115617105699</v>
+        <v>-1.51278718325529</v>
       </c>
     </row>
     <row r="186">
@@ -6448,7 +6448,7 @@
         <v>111660</v>
       </c>
       <c r="E186" t="n">
-        <v>-1.95146207991107</v>
+        <v>-2.15094579437703</v>
       </c>
     </row>
     <row r="187">
@@ -6465,7 +6465,7 @@
         <v>88394</v>
       </c>
       <c r="E187" t="n">
-        <v>-2.09407379509088</v>
+        <v>-2.2896374660434</v>
       </c>
     </row>
     <row r="188">
@@ -6482,7 +6482,7 @@
         <v>170703</v>
       </c>
       <c r="E188" t="n">
-        <v>-1.43413137099293</v>
+        <v>-1.56215495409186</v>
       </c>
     </row>
     <row r="189">
@@ -6499,7 +6499,7 @@
         <v>93922</v>
       </c>
       <c r="E189" t="n">
-        <v>-1.60191850373858</v>
+        <v>-1.73314035648226</v>
       </c>
     </row>
     <row r="190">
@@ -6516,7 +6516,7 @@
         <v>110464</v>
       </c>
       <c r="E190" t="n">
-        <v>-1.45231226364032</v>
+        <v>-1.61305258191194</v>
       </c>
     </row>
     <row r="191">
@@ -6533,7 +6533,7 @@
         <v>189331</v>
       </c>
       <c r="E191" t="n">
-        <v>-1.65757239734653</v>
+        <v>-1.82063601564736</v>
       </c>
     </row>
     <row r="192">
@@ -6550,7 +6550,7 @@
         <v>263252</v>
       </c>
       <c r="E192" t="n">
-        <v>-1.93729298922407</v>
+        <v>-2.10382953837994</v>
       </c>
     </row>
     <row r="193">
@@ -6567,7 +6567,7 @@
         <v>94313</v>
       </c>
       <c r="E193" t="n">
-        <v>-1.41243642879213</v>
+        <v>-1.52436668953035</v>
       </c>
     </row>
     <row r="194">
@@ -6584,7 +6584,7 @@
         <v>191039</v>
       </c>
       <c r="E194" t="n">
-        <v>-1.55956224377063</v>
+        <v>-1.68501647027232</v>
       </c>
     </row>
     <row r="195">
@@ -6601,7 +6601,7 @@
         <v>385423</v>
       </c>
       <c r="E195" t="n">
-        <v>-1.44970990998098</v>
+        <v>-1.56784371803054</v>
       </c>
     </row>
     <row r="196">
@@ -6618,7 +6618,7 @@
         <v>110219</v>
       </c>
       <c r="E196" t="n">
-        <v>-1.66576865717611</v>
+        <v>-1.81809224775273</v>
       </c>
     </row>
     <row r="197">
@@ -6635,7 +6635,7 @@
         <v>71593</v>
       </c>
       <c r="E197" t="n">
-        <v>-1.1968027877282</v>
+        <v>-1.32893249844148</v>
       </c>
     </row>
     <row r="198">
@@ -6652,7 +6652,7 @@
         <v>125929</v>
       </c>
       <c r="E198" t="n">
-        <v>-1.60429206866408</v>
+        <v>-1.7276383941095</v>
       </c>
     </row>
     <row r="199">
@@ -6669,7 +6669,7 @@
         <v>486299</v>
       </c>
       <c r="E199" t="n">
-        <v>-1.42329220999523</v>
+        <v>-1.54491745412938</v>
       </c>
     </row>
     <row r="200">
@@ -6686,7 +6686,7 @@
         <v>195678</v>
       </c>
       <c r="E200" t="n">
-        <v>-1.32038785575942</v>
+        <v>-1.45291544202212</v>
       </c>
     </row>
     <row r="201">
@@ -6703,7 +6703,7 @@
         <v>194058</v>
       </c>
       <c r="E201" t="n">
-        <v>-1.391568350375</v>
+        <v>-1.52262514927816</v>
       </c>
     </row>
     <row r="202">
@@ -6720,7 +6720,7 @@
         <v>84359</v>
       </c>
       <c r="E202" t="n">
-        <v>-1.72601235466129</v>
+        <v>-1.83518507729999</v>
       </c>
     </row>
     <row r="203">
@@ -6737,7 +6737,7 @@
         <v>94792</v>
       </c>
       <c r="E203" t="n">
-        <v>-1.72817699598792</v>
+        <v>-1.84330049804198</v>
       </c>
     </row>
     <row r="204">
@@ -6754,7 +6754,7 @@
         <v>106742</v>
       </c>
       <c r="E204" t="n">
-        <v>-1.71487344994345</v>
+        <v>-1.82025072457229</v>
       </c>
     </row>
     <row r="205">
@@ -6771,7 +6771,7 @@
         <v>146449</v>
       </c>
       <c r="E205" t="n">
-        <v>-1.39077826370452</v>
+        <v>-1.51487717691997</v>
       </c>
     </row>
     <row r="206">
@@ -6788,7 +6788,7 @@
         <v>75675</v>
       </c>
       <c r="E206" t="n">
-        <v>-1.5943286236277</v>
+        <v>-1.76139879617804</v>
       </c>
     </row>
     <row r="207">
@@ -6805,7 +6805,7 @@
         <v>226567</v>
       </c>
       <c r="E207" t="n">
-        <v>-2.22683213542336</v>
+        <v>-2.43143610997728</v>
       </c>
     </row>
     <row r="208">
@@ -6822,7 +6822,7 @@
         <v>93585</v>
       </c>
       <c r="E208" t="n">
-        <v>-1.81681397276701</v>
+        <v>-2.00105989029972</v>
       </c>
     </row>
     <row r="209">
@@ -6839,7 +6839,7 @@
         <v>75097</v>
       </c>
       <c r="E209" t="n">
-        <v>-1.89736337599069</v>
+        <v>-2.02276815226224</v>
       </c>
     </row>
     <row r="210">
@@ -6856,7 +6856,7 @@
         <v>202548</v>
       </c>
       <c r="E210" t="n">
-        <v>-1.69976635897062</v>
+        <v>-1.86280788191552</v>
       </c>
     </row>
     <row r="211">
@@ -6873,7 +6873,7 @@
         <v>77941</v>
       </c>
       <c r="E211" t="n">
-        <v>-2.13769110677922</v>
+        <v>-2.34417416833821</v>
       </c>
     </row>
     <row r="212">
@@ -6890,7 +6890,7 @@
         <v>72155</v>
       </c>
       <c r="E212" t="n">
-        <v>-2.0228181632796</v>
+        <v>-2.16440546086408</v>
       </c>
     </row>
     <row r="213">
@@ -6907,7 +6907,7 @@
         <v>87426</v>
       </c>
       <c r="E213" t="n">
-        <v>-1.78212353020581</v>
+        <v>-1.95678287896839</v>
       </c>
     </row>
     <row r="214">
@@ -6924,7 +6924,7 @@
         <v>2716462</v>
       </c>
       <c r="E214" t="n">
-        <v>-1.36449295493273</v>
+        <v>-1.4864384515764</v>
       </c>
     </row>
     <row r="215">
@@ -6941,7 +6941,7 @@
         <v>68645</v>
       </c>
       <c r="E215" t="n">
-        <v>-1.79330368578721</v>
+        <v>-1.96674375953403</v>
       </c>
     </row>
     <row r="216">
@@ -6958,7 +6958,7 @@
         <v>114459</v>
       </c>
       <c r="E216" t="n">
-        <v>-1.76283355548415</v>
+        <v>-1.92923418014039</v>
       </c>
     </row>
     <row r="217">
@@ -6975,7 +6975,7 @@
         <v>74752</v>
       </c>
       <c r="E217" t="n">
-        <v>-1.7158848906217</v>
+        <v>-1.82676988865965</v>
       </c>
     </row>
     <row r="218">
@@ -6992,7 +6992,7 @@
         <v>147150</v>
       </c>
       <c r="E218" t="n">
-        <v>-1.94093322879425</v>
+        <v>-2.11363256009877</v>
       </c>
     </row>
     <row r="219">
@@ -7009,7 +7009,7 @@
         <v>148584</v>
       </c>
       <c r="E219" t="n">
-        <v>-2.36648557179103</v>
+        <v>-2.53331189371322</v>
       </c>
     </row>
     <row r="220">
@@ -7026,7 +7026,7 @@
         <v>68610</v>
       </c>
       <c r="E220" t="n">
-        <v>-1.70570634699788</v>
+        <v>-1.83080361545727</v>
       </c>
     </row>
     <row r="221">
@@ -7043,7 +7043,7 @@
         <v>115637</v>
       </c>
       <c r="E221" t="n">
-        <v>-1.71967675228361</v>
+        <v>-1.88515021139379</v>
       </c>
     </row>
     <row r="222">
@@ -7060,7 +7060,7 @@
         <v>148287</v>
       </c>
       <c r="E222" t="n">
-        <v>-1.63513187355868</v>
+        <v>-1.80326664610063</v>
       </c>
     </row>
     <row r="223">
@@ -7077,7 +7077,7 @@
         <v>73118</v>
       </c>
       <c r="E223" t="n">
-        <v>-1.77218509994909</v>
+        <v>-1.8887837487136</v>
       </c>
     </row>
     <row r="224">
@@ -7094,7 +7094,7 @@
         <v>114663</v>
       </c>
       <c r="E224" t="n">
-        <v>-2.03253798065486</v>
+        <v>-2.21043943147776</v>
       </c>
     </row>
     <row r="225">
@@ -7111,7 +7111,7 @@
         <v>88805</v>
       </c>
       <c r="E225" t="n">
-        <v>-1.5792863010293</v>
+        <v>-1.77287424309015</v>
       </c>
     </row>
     <row r="226">
@@ -7128,7 +7128,7 @@
         <v>85551</v>
       </c>
       <c r="E226" t="n">
-        <v>-1.98981619460622</v>
+        <v>-2.16720143899566</v>
       </c>
     </row>
     <row r="227">
@@ -7145,7 +7145,7 @@
         <v>93148</v>
       </c>
       <c r="E227" t="n">
-        <v>-2.42502355640958</v>
+        <v>-2.59323573615363</v>
       </c>
     </row>
     <row r="228">
@@ -7162,7 +7162,7 @@
         <v>117940</v>
       </c>
       <c r="E228" t="n">
-        <v>-1.8618899634105</v>
+        <v>-2.04674718820475</v>
       </c>
     </row>
     <row r="229">
@@ -7179,7 +7179,7 @@
         <v>90907</v>
       </c>
       <c r="E229" t="n">
-        <v>-2.43755240963129</v>
+        <v>-2.60613683282012</v>
       </c>
     </row>
     <row r="230">
@@ -7196,7 +7196,7 @@
         <v>254796</v>
       </c>
       <c r="E230" t="n">
-        <v>-1.98407822180301</v>
+        <v>-2.16381708874718</v>
       </c>
     </row>
     <row r="231">
@@ -7213,7 +7213,7 @@
         <v>76627</v>
       </c>
       <c r="E231" t="n">
-        <v>-1.31240768622211</v>
+        <v>-1.46081367569414</v>
       </c>
     </row>
     <row r="232">
@@ -7230,7 +7230,7 @@
         <v>857386</v>
       </c>
       <c r="E232" t="n">
-        <v>-1.54139881869208</v>
+        <v>-1.67969184838462</v>
       </c>
     </row>
     <row r="233">
@@ -7247,7 +7247,7 @@
         <v>71225</v>
       </c>
       <c r="E233" t="n">
-        <v>-1.82132795593206</v>
+        <v>-2.0040743976384</v>
       </c>
     </row>
     <row r="234">
@@ -7264,7 +7264,7 @@
         <v>68450</v>
       </c>
       <c r="E234" t="n">
-        <v>-1.90913026165593</v>
+        <v>-2.10143764117623</v>
       </c>
     </row>
     <row r="235">
@@ -7281,7 +7281,7 @@
         <v>96143</v>
       </c>
       <c r="E235" t="n">
-        <v>-1.59940867516846</v>
+        <v>-1.77505693815467</v>
       </c>
     </row>
     <row r="236">
@@ -7298,7 +7298,7 @@
         <v>132240</v>
       </c>
       <c r="E236" t="n">
-        <v>-2.36647189543361</v>
+        <v>-2.55017416627306</v>
       </c>
     </row>
     <row r="237">
@@ -7315,7 +7315,7 @@
         <v>102314</v>
       </c>
       <c r="E237" t="n">
-        <v>-2.11586474306035</v>
+        <v>-2.32996375217325</v>
       </c>
     </row>
     <row r="238">
@@ -7332,7 +7332,7 @@
         <v>217508</v>
       </c>
       <c r="E238" t="n">
-        <v>-2.01400011266034</v>
+        <v>-2.22505364933227</v>
       </c>
     </row>
     <row r="239">
@@ -7349,7 +7349,7 @@
         <v>75788</v>
       </c>
       <c r="E239" t="n">
-        <v>-2.12771507054312</v>
+        <v>-2.30427178574993</v>
       </c>
     </row>
     <row r="240">
@@ -7366,7 +7366,7 @@
         <v>84034</v>
       </c>
       <c r="E240" t="n">
-        <v>-1.79184139985926</v>
+        <v>-1.97104026503491</v>
       </c>
     </row>
     <row r="241">
@@ -7383,7 +7383,7 @@
         <v>67588</v>
       </c>
       <c r="E241" t="n">
-        <v>-1.98772781425678</v>
+        <v>-2.17312430781321</v>
       </c>
     </row>
     <row r="242">
@@ -7400,7 +7400,7 @@
         <v>155031</v>
       </c>
       <c r="E242" t="n">
-        <v>-1.371225076286</v>
+        <v>-1.50486030936783</v>
       </c>
     </row>
     <row r="243">
@@ -7417,7 +7417,7 @@
         <v>95000</v>
       </c>
       <c r="E243" t="n">
-        <v>-2.14901424750112</v>
+        <v>-2.32262400267616</v>
       </c>
     </row>
     <row r="244">
@@ -7434,7 +7434,7 @@
         <v>137500</v>
       </c>
       <c r="E244" t="n">
-        <v>-2.32922547815639</v>
+        <v>-2.49990670133137</v>
       </c>
     </row>
     <row r="245">
@@ -7451,7 +7451,7 @@
         <v>191263</v>
       </c>
       <c r="E245" t="n">
-        <v>-2.38792982220572</v>
+        <v>-2.55825519688938</v>
       </c>
     </row>
     <row r="246">
@@ -7468,7 +7468,7 @@
         <v>126588</v>
       </c>
       <c r="E246" t="n">
-        <v>-1.9666394005383</v>
+        <v>-2.15205348846055</v>
       </c>
     </row>
     <row r="247">
@@ -7485,7 +7485,7 @@
         <v>390599</v>
       </c>
       <c r="E247" t="n">
-        <v>-1.93675549186266</v>
+        <v>-2.11471732230673</v>
       </c>
     </row>
     <row r="248">
@@ -7502,7 +7502,7 @@
         <v>321959</v>
       </c>
       <c r="E248" t="n">
-        <v>-1.84685112919749</v>
+        <v>-2.01937539327927</v>
       </c>
     </row>
     <row r="249">
@@ -7519,7 +7519,7 @@
         <v>621337</v>
       </c>
       <c r="E249" t="n">
-        <v>-1.74950665650588</v>
+        <v>-1.9285696413406</v>
       </c>
     </row>
     <row r="250">
@@ -7536,7 +7536,7 @@
         <v>225370</v>
       </c>
       <c r="E250" t="n">
-        <v>-1.37599038048848</v>
+        <v>-1.51061322452778</v>
       </c>
     </row>
     <row r="251">
@@ -7553,7 +7553,7 @@
         <v>67464</v>
       </c>
       <c r="E251" t="n">
-        <v>-1.48138171659224</v>
+        <v>-1.61309438914598</v>
       </c>
     </row>
     <row r="252">
@@ -7570,7 +7570,7 @@
         <v>126847</v>
       </c>
       <c r="E252" t="n">
-        <v>-1.71016344787518</v>
+        <v>-1.87978405957685</v>
       </c>
     </row>
     <row r="253">
@@ -7587,7 +7587,7 @@
         <v>77125</v>
       </c>
       <c r="E253" t="n">
-        <v>-1.52127426186614</v>
+        <v>-1.68540705838146</v>
       </c>
     </row>
     <row r="254">
@@ -7604,7 +7604,7 @@
         <v>393292</v>
       </c>
       <c r="E254" t="n">
-        <v>-1.31199284509005</v>
+        <v>-1.44203407629802</v>
       </c>
     </row>
     <row r="255">
@@ -7621,7 +7621,7 @@
         <v>191715</v>
       </c>
       <c r="E255" t="n">
-        <v>-1.34966363181472</v>
+        <v>-1.49557564171721</v>
       </c>
     </row>
     <row r="256">
@@ -7638,7 +7638,7 @@
         <v>66878</v>
       </c>
       <c r="E256" t="n">
-        <v>-2.28014232054043</v>
+        <v>-2.47860612013505</v>
       </c>
     </row>
     <row r="257">
@@ -7655,7 +7655,7 @@
         <v>611648</v>
       </c>
       <c r="E257" t="n">
-        <v>-1.28252460260875</v>
+        <v>-1.41180418523153</v>
       </c>
     </row>
     <row r="258">
@@ -7672,7 +7672,7 @@
         <v>683015</v>
       </c>
       <c r="E258" t="n">
-        <v>-1.55458987636662</v>
+        <v>-1.66424520115785</v>
       </c>
     </row>
     <row r="259">
@@ -7689,7 +7689,7 @@
         <v>95664</v>
       </c>
       <c r="E259" t="n">
-        <v>-1.90775606617683</v>
+        <v>-2.03071724551372</v>
       </c>
     </row>
     <row r="260">
@@ -7706,7 +7706,7 @@
         <v>113631</v>
       </c>
       <c r="E260" t="n">
-        <v>-2.14337070848959</v>
+        <v>-2.32560573656683</v>
       </c>
     </row>
     <row r="261">
@@ -7723,7 +7723,7 @@
         <v>89415</v>
       </c>
       <c r="E261" t="n">
-        <v>-1.92092434786215</v>
+        <v>-2.09730236868134</v>
       </c>
     </row>
     <row r="262">
@@ -7740,7 +7740,7 @@
         <v>111343</v>
       </c>
       <c r="E262" t="n">
-        <v>-1.97276750399486</v>
+        <v>-2.1736430023813</v>
       </c>
     </row>
     <row r="263">
@@ -7757,7 +7757,7 @@
         <v>94064</v>
       </c>
       <c r="E263" t="n">
-        <v>-1.63640034972728</v>
+        <v>-1.80226830792141</v>
       </c>
     </row>
     <row r="264">
@@ -7774,7 +7774,7 @@
         <v>95110</v>
       </c>
       <c r="E264" t="n">
-        <v>-1.73842152198915</v>
+        <v>-1.8782450102578</v>
       </c>
     </row>
     <row r="265">
@@ -7791,7 +7791,7 @@
         <v>88989</v>
       </c>
       <c r="E265" t="n">
-        <v>-2.31006843116215</v>
+        <v>-2.48579369278312</v>
       </c>
     </row>
     <row r="266">
@@ -7808,7 +7808,7 @@
         <v>94165</v>
       </c>
       <c r="E266" t="n">
-        <v>-2.3487355380111</v>
+        <v>-2.51833675468389</v>
       </c>
     </row>
     <row r="267">
@@ -7825,7 +7825,7 @@
         <v>81361</v>
       </c>
       <c r="E267" t="n">
-        <v>-2.18465227392183</v>
+        <v>-2.37156279957029</v>
       </c>
     </row>
     <row r="268">
@@ -7842,7 +7842,7 @@
         <v>154763</v>
       </c>
       <c r="E268" t="n">
-        <v>-1.29577680963095</v>
+        <v>-1.41665830580488</v>
       </c>
     </row>
     <row r="269">
@@ -7859,7 +7859,7 @@
         <v>185685</v>
       </c>
       <c r="E269" t="n">
-        <v>-1.90504520196429</v>
+        <v>-2.06949711535931</v>
       </c>
     </row>
     <row r="270">
@@ -7876,7 +7876,7 @@
         <v>121461</v>
       </c>
       <c r="E270" t="n">
-        <v>-2.15761080221105</v>
+        <v>-2.32815001797066</v>
       </c>
     </row>
     <row r="271">
@@ -7893,7 +7893,7 @@
         <v>94497</v>
       </c>
       <c r="E271" t="n">
-        <v>-1.90121456589166</v>
+        <v>-2.05864670011631</v>
       </c>
     </row>
     <row r="272">
@@ -7910,7 +7910,7 @@
         <v>673103</v>
       </c>
       <c r="E272" t="n">
-        <v>-1.06043812402147</v>
+        <v>-1.21079440728516</v>
       </c>
     </row>
     <row r="273">
@@ -7927,7 +7927,7 @@
         <v>81048</v>
       </c>
       <c r="E273" t="n">
-        <v>-2.23876986493139</v>
+        <v>-2.4034246988187</v>
       </c>
     </row>
     <row r="274">
@@ -7944,7 +7944,7 @@
         <v>198811</v>
       </c>
       <c r="E274" t="n">
-        <v>-1.88509064387826</v>
+        <v>-2.06078139760819</v>
       </c>
     </row>
     <row r="275">
@@ -7961,7 +7961,7 @@
         <v>75802</v>
       </c>
       <c r="E275" t="n">
-        <v>-1.76161447817809</v>
+        <v>-1.92675162749019</v>
       </c>
     </row>
     <row r="276">
@@ -7978,7 +7978,7 @@
         <v>115451</v>
       </c>
       <c r="E276" t="n">
-        <v>-1.58389161880537</v>
+        <v>-1.70683352162136</v>
       </c>
     </row>
     <row r="277">
@@ -7995,7 +7995,7 @@
         <v>94108</v>
       </c>
       <c r="E277" t="n">
-        <v>-1.92269297097989</v>
+        <v>-2.05847296635691</v>
       </c>
     </row>
     <row r="278">
@@ -8012,7 +8012,7 @@
         <v>74198</v>
       </c>
       <c r="E278" t="n">
-        <v>-2.41914495347592</v>
+        <v>-2.58622851101956</v>
       </c>
     </row>
     <row r="279">
@@ -8029,7 +8029,7 @@
         <v>73203</v>
       </c>
       <c r="E279" t="n">
-        <v>-1.81551761577169</v>
+        <v>-1.96957949064714</v>
       </c>
     </row>
     <row r="280">
@@ -8046,7 +8046,7 @@
         <v>132628</v>
       </c>
       <c r="E280" t="n">
-        <v>-2.24756412854883</v>
+        <v>-2.46483865169405</v>
       </c>
     </row>
     <row r="281">
@@ -8063,7 +8063,7 @@
         <v>83826</v>
       </c>
       <c r="E281" t="n">
-        <v>-2.38903389021779</v>
+        <v>-2.55396639784803</v>
       </c>
     </row>
     <row r="282">
@@ -8080,7 +8080,7 @@
         <v>135029</v>
       </c>
       <c r="E282" t="n">
-        <v>-2.07004463461826</v>
+        <v>-2.28736883993515</v>
       </c>
     </row>
     <row r="283">
@@ -8097,7 +8097,7 @@
         <v>81750</v>
       </c>
       <c r="E283" t="n">
-        <v>-1.73489451992983</v>
+        <v>-1.8671764442414</v>
       </c>
     </row>
     <row r="284">
@@ -8114,7 +8114,7 @@
         <v>75938</v>
       </c>
       <c r="E284" t="n">
-        <v>-1.95079766487861</v>
+        <v>-2.11895534772888</v>
       </c>
     </row>
     <row r="285">
@@ -8131,7 +8131,7 @@
         <v>85863</v>
       </c>
       <c r="E285" t="n">
-        <v>-2.1577791849845</v>
+        <v>-2.30980933497103</v>
       </c>
     </row>
     <row r="286">
@@ -8148,7 +8148,7 @@
         <v>80573</v>
       </c>
       <c r="E286" t="n">
-        <v>-1.84490654432117</v>
+        <v>-1.9886077354331</v>
       </c>
     </row>
     <row r="287">
@@ -8165,7 +8165,7 @@
         <v>86048</v>
       </c>
       <c r="E287" t="n">
-        <v>-2.30765642535077</v>
+        <v>-2.51073936320442</v>
       </c>
     </row>
     <row r="288">
@@ -8182,7 +8182,7 @@
         <v>422326</v>
       </c>
       <c r="E288" t="n">
-        <v>-1.98231925935028</v>
+        <v>-2.14277318884207</v>
       </c>
     </row>
     <row r="289">
@@ -8199,7 +8199,7 @@
         <v>78388</v>
       </c>
       <c r="E289" t="n">
-        <v>-2.19887166249658</v>
+        <v>-2.35034081901987</v>
       </c>
     </row>
     <row r="290">
@@ -8216,7 +8216,7 @@
         <v>115733</v>
       </c>
       <c r="E290" t="n">
-        <v>-2.36473270033047</v>
+        <v>-2.53395718843958</v>
       </c>
     </row>
     <row r="291">
@@ -8233,7 +8233,7 @@
         <v>306604</v>
       </c>
       <c r="E291" t="n">
-        <v>-1.80473299491368</v>
+        <v>-1.95836725537471</v>
       </c>
     </row>
     <row r="292">
@@ -8250,7 +8250,7 @@
         <v>71812</v>
       </c>
       <c r="E292" t="n">
-        <v>-1.48296542287348</v>
+        <v>-1.61846089200966</v>
       </c>
     </row>
     <row r="293">
@@ -8267,7 +8267,7 @@
         <v>167250</v>
       </c>
       <c r="E293" t="n">
-        <v>-1.15224612098993</v>
+        <v>-1.29416998505342</v>
       </c>
     </row>
     <row r="294">
@@ -8284,7 +8284,7 @@
         <v>121720</v>
       </c>
       <c r="E294" t="n">
-        <v>-2.14879260312365</v>
+        <v>-2.32212815444027</v>
       </c>
     </row>
     <row r="295">
@@ -8301,7 +8301,7 @@
         <v>117308</v>
       </c>
       <c r="E295" t="n">
-        <v>-1.81108919535973</v>
+        <v>-1.94976566514323</v>
       </c>
     </row>
     <row r="296">
@@ -8318,7 +8318,7 @@
         <v>488825</v>
       </c>
       <c r="E296" t="n">
-        <v>-1.54872550064319</v>
+        <v>-1.68201697570748</v>
       </c>
     </row>
     <row r="297">
@@ -8335,7 +8335,7 @@
         <v>97101</v>
       </c>
       <c r="E297" t="n">
-        <v>-1.88714719863529</v>
+        <v>-2.01730529356579</v>
       </c>
     </row>
     <row r="298">
@@ -8352,7 +8352,7 @@
         <v>87578</v>
       </c>
       <c r="E298" t="n">
-        <v>-2.41788775352857</v>
+        <v>-2.60298602831685</v>
       </c>
     </row>
     <row r="299">
@@ -8369,7 +8369,7 @@
         <v>76643</v>
       </c>
       <c r="E299" t="n">
-        <v>-1.91249373837855</v>
+        <v>-2.09575568751257</v>
       </c>
     </row>
     <row r="300">
@@ -8386,7 +8386,7 @@
         <v>308626</v>
       </c>
       <c r="E300" t="n">
-        <v>-1.44265225999732</v>
+        <v>-1.57869076719591</v>
       </c>
     </row>
     <row r="301">
@@ -8403,7 +8403,7 @@
         <v>167376</v>
       </c>
       <c r="E301" t="n">
-        <v>-1.99614764526494</v>
+        <v>-2.17870843123595</v>
       </c>
     </row>
     <row r="302">
@@ -8420,7 +8420,7 @@
         <v>109642</v>
       </c>
       <c r="E302" t="n">
-        <v>-2.26800300050648</v>
+        <v>-2.46607977096939</v>
       </c>
     </row>
     <row r="303">
@@ -8437,7 +8437,7 @@
         <v>73338</v>
       </c>
       <c r="E303" t="n">
-        <v>-2.26226344133877</v>
+        <v>-2.43549285509732</v>
       </c>
     </row>
     <row r="304">
@@ -8454,7 +8454,7 @@
         <v>284734</v>
       </c>
       <c r="E304" t="n">
-        <v>-2.14875542168708</v>
+        <v>-2.32800408330381</v>
       </c>
     </row>
     <row r="305">
@@ -8471,7 +8471,7 @@
         <v>466903</v>
       </c>
       <c r="E305" t="n">
-        <v>-1.97926170998072</v>
+        <v>-2.15515849551014</v>
       </c>
     </row>
     <row r="306">
@@ -8488,7 +8488,7 @@
         <v>302535</v>
       </c>
       <c r="E306" t="n">
-        <v>-1.73209111174257</v>
+        <v>-1.84498451059768</v>
       </c>
     </row>
     <row r="307">
@@ -8505,7 +8505,7 @@
         <v>641708</v>
       </c>
       <c r="E307" t="n">
-        <v>-1.48162456476571</v>
+        <v>-1.59383270045783</v>
       </c>
     </row>
     <row r="308">
@@ -8522,7 +8522,7 @@
         <v>242949</v>
       </c>
       <c r="E308" t="n">
-        <v>-1.33790962986698</v>
+        <v>-1.43587209228385</v>
       </c>
     </row>
     <row r="309">
@@ -8539,7 +8539,7 @@
         <v>248860</v>
       </c>
       <c r="E309" t="n">
-        <v>-1.69996169478957</v>
+        <v>-1.81666903875459</v>
       </c>
     </row>
     <row r="310">
@@ -8556,7 +8556,7 @@
         <v>100878</v>
       </c>
       <c r="E310" t="n">
-        <v>-1.64789402586984</v>
+        <v>-1.76402657994195</v>
       </c>
     </row>
     <row r="311">
@@ -8573,7 +8573,7 @@
         <v>111194</v>
       </c>
       <c r="E311" t="n">
-        <v>-2.11749231425707</v>
+        <v>-2.33095264697157</v>
       </c>
     </row>
     <row r="312">
@@ -8590,7 +8590,7 @@
         <v>74534</v>
       </c>
       <c r="E312" t="n">
-        <v>-1.14907246528874</v>
+        <v>-1.31057594528727</v>
       </c>
     </row>
     <row r="313">
@@ -8607,7 +8607,7 @@
         <v>86615</v>
       </c>
       <c r="E313" t="n">
-        <v>-1.56107703227528</v>
+        <v>-1.67487536111043</v>
       </c>
     </row>
     <row r="314">
@@ -8624,7 +8624,7 @@
         <v>130222</v>
       </c>
       <c r="E314" t="n">
-        <v>-1.15928491976071</v>
+        <v>-1.28175515100046</v>
       </c>
     </row>
     <row r="315">
@@ -8641,7 +8641,7 @@
         <v>270750</v>
       </c>
       <c r="E315" t="n">
-        <v>-1.4062030958899</v>
+        <v>-1.51649666946632</v>
       </c>
     </row>
     <row r="316">
@@ -8658,7 +8658,7 @@
         <v>285156</v>
       </c>
       <c r="E316" t="n">
-        <v>-1.06469367230223</v>
+        <v>-1.18810897313634</v>
       </c>
     </row>
     <row r="317">
@@ -8675,7 +8675,7 @@
         <v>71245</v>
       </c>
       <c r="E317" t="n">
-        <v>-1.18598840775769</v>
+        <v>-1.31489127066201</v>
       </c>
     </row>
     <row r="318">
@@ -8692,7 +8692,7 @@
         <v>148678</v>
       </c>
       <c r="E318" t="n">
-        <v>-1.12705768439749</v>
+        <v>-1.25222728885133</v>
       </c>
     </row>
     <row r="319">
@@ -8709,7 +8709,7 @@
         <v>84971</v>
       </c>
       <c r="E319" t="n">
-        <v>-1.16071957788824</v>
+        <v>-1.33360065808232</v>
       </c>
     </row>
     <row r="320">
@@ -8726,7 +8726,7 @@
         <v>70409</v>
       </c>
       <c r="E320" t="n">
-        <v>-1.25019024588861</v>
+        <v>-1.38440352199961</v>
       </c>
     </row>
     <row r="321">
@@ -8743,7 +8743,7 @@
         <v>558558</v>
       </c>
       <c r="E321" t="n">
-        <v>-1.45887745580128</v>
+        <v>-1.57103373427729</v>
       </c>
     </row>
     <row r="322">
@@ -8760,7 +8760,7 @@
         <v>101706</v>
       </c>
       <c r="E322" t="n">
-        <v>-1.36957785424188</v>
+        <v>-1.4876872445942</v>
       </c>
     </row>
     <row r="323">
@@ -8777,7 +8777,7 @@
         <v>96168</v>
       </c>
       <c r="E323" t="n">
-        <v>-1.88795879637633</v>
+        <v>-2.06823367145335</v>
       </c>
     </row>
     <row r="324">
@@ -8794,7 +8794,7 @@
         <v>83763</v>
       </c>
       <c r="E324" t="n">
-        <v>-1.77003717480753</v>
+        <v>-1.90832823393866</v>
       </c>
     </row>
     <row r="325">
@@ -8811,7 +8811,7 @@
         <v>98252</v>
       </c>
       <c r="E325" t="n">
-        <v>-1.89565721474106</v>
+        <v>-2.04974151365581</v>
       </c>
     </row>
     <row r="326">
@@ -8828,7 +8828,7 @@
         <v>258592</v>
       </c>
       <c r="E326" t="n">
-        <v>-1.74518950134018</v>
+        <v>-1.91967113750889</v>
       </c>
     </row>
     <row r="327">
@@ -8845,7 +8845,7 @@
         <v>68702</v>
       </c>
       <c r="E327" t="n">
-        <v>-1.48824206414108</v>
+        <v>-1.63285048241091</v>
       </c>
     </row>
     <row r="328">
@@ -8862,7 +8862,7 @@
         <v>79956</v>
       </c>
       <c r="E328" t="n">
-        <v>-1.74955504536561</v>
+        <v>-1.90626809002694</v>
       </c>
     </row>
     <row r="329">
@@ -8879,7 +8879,7 @@
         <v>8622698</v>
       </c>
       <c r="E329" t="n">
-        <v>-1.44375021308394</v>
+        <v>-1.54552110550534</v>
       </c>
     </row>
     <row r="330">
@@ -8896,7 +8896,7 @@
         <v>208049</v>
       </c>
       <c r="E330" t="n">
-        <v>-1.46154444384921</v>
+        <v>-1.61781888317347</v>
       </c>
     </row>
     <row r="331">
@@ -8913,7 +8913,7 @@
         <v>65626</v>
       </c>
       <c r="E331" t="n">
-        <v>-2.00334245089645</v>
+        <v>-2.17454420740819</v>
       </c>
     </row>
     <row r="332">
@@ -8930,7 +8930,7 @@
         <v>143398</v>
       </c>
       <c r="E332" t="n">
-        <v>-1.83244260750978</v>
+        <v>-1.99992408711893</v>
       </c>
     </row>
     <row r="333">
@@ -8947,7 +8947,7 @@
         <v>202008</v>
       </c>
       <c r="E333" t="n">
-        <v>-1.70197475779748</v>
+        <v>-1.85343587243927</v>
       </c>
     </row>
     <row r="334">
@@ -8964,7 +8964,7 @@
         <v>91916</v>
       </c>
       <c r="E334" t="n">
-        <v>-2.08873540743266</v>
+        <v>-2.25513148940914</v>
       </c>
     </row>
     <row r="335">
@@ -8981,7 +8981,7 @@
         <v>166032</v>
       </c>
       <c r="E335" t="n">
-        <v>-2.12514816976961</v>
+        <v>-2.31484265476829</v>
       </c>
     </row>
     <row r="336">
@@ -8998,7 +8998,7 @@
         <v>859052</v>
       </c>
       <c r="E336" t="n">
-        <v>-1.56208763658599</v>
+        <v>-1.7195470940174</v>
       </c>
     </row>
     <row r="337">
@@ -9015,7 +9015,7 @@
         <v>92072</v>
       </c>
       <c r="E337" t="n">
-        <v>-1.88654232496665</v>
+        <v>-2.0543861186379</v>
       </c>
     </row>
     <row r="338">
@@ -9032,7 +9032,7 @@
         <v>267932</v>
       </c>
       <c r="E338" t="n">
-        <v>-1.45672454796734</v>
+        <v>-1.56916446296862</v>
       </c>
     </row>
     <row r="339">
@@ -9049,7 +9049,7 @@
         <v>209913</v>
       </c>
       <c r="E339" t="n">
-        <v>-1.38163670633507</v>
+        <v>-1.50389011004288</v>
       </c>
     </row>
     <row r="340">
@@ -9066,7 +9066,7 @@
         <v>76606</v>
       </c>
       <c r="E340" t="n">
-        <v>-1.56414725303604</v>
+        <v>-1.69296650637687</v>
       </c>
     </row>
     <row r="341">
@@ -9083,7 +9083,7 @@
         <v>290201</v>
       </c>
       <c r="E341" t="n">
-        <v>-1.46819681785562</v>
+        <v>-1.58504342613293</v>
       </c>
     </row>
     <row r="342">
@@ -9100,7 +9100,7 @@
         <v>92171</v>
       </c>
       <c r="E342" t="n">
-        <v>-1.57756429373977</v>
+        <v>-1.69848936966292</v>
       </c>
     </row>
     <row r="343">
@@ -9117,7 +9117,7 @@
         <v>111213</v>
       </c>
       <c r="E343" t="n">
-        <v>-1.51380509541005</v>
+        <v>-1.63038972403188</v>
       </c>
     </row>
     <row r="344">
@@ -9134,7 +9134,7 @@
         <v>72448</v>
       </c>
       <c r="E344" t="n">
-        <v>-1.6559569473117</v>
+        <v>-1.83883669506305</v>
       </c>
     </row>
     <row r="345">
@@ -9151,7 +9151,7 @@
         <v>464972</v>
       </c>
       <c r="E345" t="n">
-        <v>-1.95438390648168</v>
+        <v>-2.14152546573662</v>
       </c>
     </row>
     <row r="346">
@@ -9168,7 +9168,7 @@
         <v>119048</v>
       </c>
       <c r="E346" t="n">
-        <v>-1.83381963405274</v>
+        <v>-1.99651369787289</v>
       </c>
     </row>
     <row r="347">
@@ -9185,7 +9185,7 @@
         <v>244592</v>
       </c>
       <c r="E347" t="n">
-        <v>-1.4534331298133</v>
+        <v>-1.57938650918076</v>
       </c>
     </row>
     <row r="348">
@@ -9202,7 +9202,7 @@
         <v>123590</v>
       </c>
       <c r="E348" t="n">
-        <v>-2.15301825342725</v>
+        <v>-2.34018589535123</v>
       </c>
     </row>
     <row r="349">
@@ -9219,7 +9219,7 @@
         <v>197849</v>
       </c>
       <c r="E349" t="n">
-        <v>-1.9105180013909</v>
+        <v>-2.09232923246461</v>
       </c>
     </row>
     <row r="350">
@@ -9236,7 +9236,7 @@
         <v>70893</v>
       </c>
       <c r="E350" t="n">
-        <v>-1.87747153402508</v>
+        <v>-2.06495090367938</v>
       </c>
     </row>
     <row r="351">
@@ -9253,7 +9253,7 @@
         <v>301305</v>
       </c>
       <c r="E351" t="n">
-        <v>-1.49964050286212</v>
+        <v>-1.63601934230449</v>
       </c>
     </row>
     <row r="352">
@@ -9270,7 +9270,7 @@
         <v>385552</v>
       </c>
       <c r="E352" t="n">
-        <v>-1.30167423037219</v>
+        <v>-1.43739367633914</v>
       </c>
     </row>
     <row r="353">
@@ -9287,7 +9287,7 @@
         <v>881901</v>
       </c>
       <c r="E353" t="n">
-        <v>-1.58335705910113</v>
+        <v>-1.71791760827305</v>
       </c>
     </row>
     <row r="354">
@@ -9304,7 +9304,7 @@
         <v>140379</v>
       </c>
       <c r="E354" t="n">
-        <v>-1.44634828263183</v>
+        <v>-1.60086701759701</v>
       </c>
     </row>
     <row r="355">
@@ -9321,7 +9321,7 @@
         <v>79159</v>
       </c>
       <c r="E355" t="n">
-        <v>-1.88677241468218</v>
+        <v>-2.02363420121763</v>
       </c>
     </row>
     <row r="356">
@@ -9338,7 +9338,7 @@
         <v>276494</v>
       </c>
       <c r="E356" t="n">
-        <v>-1.53780977030579</v>
+        <v>-1.68364942975</v>
       </c>
     </row>
     <row r="357">
@@ -9355,7 +9355,7 @@
         <v>64585</v>
       </c>
       <c r="E357" t="n">
-        <v>-1.45727551380405</v>
+        <v>-1.63282128725084</v>
       </c>
     </row>
     <row r="358">
@@ -9372,7 +9372,7 @@
         <v>110468</v>
       </c>
       <c r="E358" t="n">
-        <v>-1.91406994305587</v>
+        <v>-2.08034900403137</v>
       </c>
     </row>
     <row r="359">
@@ -9389,7 +9389,7 @@
         <v>91936</v>
       </c>
       <c r="E359" t="n">
-        <v>-1.88196805619751</v>
+        <v>-2.00725605092467</v>
       </c>
     </row>
     <row r="360">
@@ -9406,7 +9406,7 @@
         <v>93717</v>
       </c>
       <c r="E360" t="n">
-        <v>-1.57342218567044</v>
+        <v>-1.68883704343865</v>
       </c>
     </row>
     <row r="361">
@@ -9423,7 +9423,7 @@
         <v>122842</v>
       </c>
       <c r="E361" t="n">
-        <v>-2.14524145956465</v>
+        <v>-2.34892715019915</v>
       </c>
     </row>
     <row r="362">
@@ -9440,7 +9440,7 @@
         <v>643574</v>
       </c>
       <c r="E362" t="n">
-        <v>-1.57490308422554</v>
+        <v>-1.70641352777236</v>
       </c>
     </row>
     <row r="363">
@@ -9457,7 +9457,7 @@
         <v>402227</v>
       </c>
       <c r="E363" t="n">
-        <v>-1.68895834897086</v>
+        <v>-1.8450356911759</v>
       </c>
     </row>
     <row r="364">
@@ -9474,7 +9474,7 @@
         <v>97529</v>
       </c>
       <c r="E364" t="n">
-        <v>-1.99083705371073</v>
+        <v>-2.14498259824193</v>
       </c>
     </row>
     <row r="365">
@@ -9491,7 +9491,7 @@
         <v>94527</v>
       </c>
       <c r="E365" t="n">
-        <v>-2.27954016765518</v>
+        <v>-2.46826890000527</v>
       </c>
     </row>
     <row r="366">
@@ -9508,7 +9508,7 @@
         <v>168909</v>
       </c>
       <c r="E366" t="n">
-        <v>-1.986063458688</v>
+        <v>-2.14896765431479</v>
       </c>
     </row>
     <row r="367">
@@ -9525,7 +9525,7 @@
         <v>111039</v>
       </c>
       <c r="E367" t="n">
-        <v>-1.70105688058896</v>
+        <v>-1.81680615529407</v>
       </c>
     </row>
     <row r="368">
@@ -9542,7 +9542,7 @@
         <v>106903</v>
       </c>
       <c r="E368" t="n">
-        <v>-2.04102901962115</v>
+        <v>-2.20158076150755</v>
       </c>
     </row>
     <row r="369">
@@ -9559,7 +9559,7 @@
         <v>81777</v>
       </c>
       <c r="E369" t="n">
-        <v>-1.89154236915363</v>
+        <v>-2.0528380180022</v>
       </c>
     </row>
     <row r="370">
@@ -9576,7 +9576,7 @@
         <v>648121</v>
       </c>
       <c r="E370" t="n">
-        <v>-1.81988431882678</v>
+        <v>-1.94519409314017</v>
       </c>
     </row>
     <row r="371">
@@ -9593,7 +9593,7 @@
         <v>169790</v>
       </c>
       <c r="E371" t="n">
-        <v>-1.70137725527886</v>
+        <v>-1.83806766274636</v>
       </c>
     </row>
     <row r="372">
@@ -9610,7 +9610,7 @@
         <v>121278</v>
       </c>
       <c r="E372" t="n">
-        <v>-1.41397818976078</v>
+        <v>-1.58937668977843</v>
       </c>
     </row>
     <row r="373">
@@ -9627,7 +9627,7 @@
         <v>76469</v>
       </c>
       <c r="E373" t="n">
-        <v>-1.69981869103307</v>
+        <v>-1.86680946434168</v>
       </c>
     </row>
     <row r="374">
@@ -9644,7 +9644,7 @@
         <v>97369</v>
       </c>
       <c r="E374" t="n">
-        <v>-1.97800049494564</v>
+        <v>-2.16901453875705</v>
       </c>
     </row>
     <row r="375">
@@ -9661,7 +9661,7 @@
         <v>1580863</v>
       </c>
       <c r="E375" t="n">
-        <v>-1.37965408195793</v>
+        <v>-1.50214277376054</v>
       </c>
     </row>
     <row r="376">
@@ -9678,7 +9678,7 @@
         <v>302414</v>
       </c>
       <c r="E376" t="n">
-        <v>-2.05154560052935</v>
+        <v>-2.25424243946587</v>
       </c>
     </row>
     <row r="377">
@@ -9695,7 +9695,7 @@
         <v>88418</v>
       </c>
       <c r="E377" t="n">
-        <v>-1.29289455975286</v>
+        <v>-1.4675959143904</v>
       </c>
     </row>
     <row r="378">
@@ -9712,7 +9712,7 @@
         <v>77597</v>
       </c>
       <c r="E378" t="n">
-        <v>-2.00035129259801</v>
+        <v>-2.18731243643606</v>
       </c>
     </row>
     <row r="379">
@@ -9729,7 +9729,7 @@
         <v>81192</v>
       </c>
       <c r="E379" t="n">
-        <v>-1.74993029602663</v>
+        <v>-1.88343710746584</v>
       </c>
     </row>
     <row r="380">
@@ -9746,7 +9746,7 @@
         <v>72006</v>
       </c>
       <c r="E380" t="n">
-        <v>-1.48629357896112</v>
+        <v>-1.60101171027424</v>
       </c>
     </row>
     <row r="381">
@@ -9763,7 +9763,7 @@
         <v>180388</v>
       </c>
       <c r="E381" t="n">
-        <v>-1.37987124891076</v>
+        <v>-1.50248370034209</v>
       </c>
     </row>
     <row r="382">
@@ -9780,7 +9780,7 @@
         <v>80873</v>
       </c>
       <c r="E382" t="n">
-        <v>-2.23738963589738</v>
+        <v>-2.44859498125065</v>
       </c>
     </row>
     <row r="383">
@@ -9797,7 +9797,7 @@
         <v>139906</v>
       </c>
       <c r="E383" t="n">
-        <v>-1.86598597997035</v>
+        <v>-2.03477043767644</v>
       </c>
     </row>
     <row r="384">
@@ -9814,7 +9814,7 @@
         <v>133578</v>
       </c>
       <c r="E384" t="n">
-        <v>-1.59369592713859</v>
+        <v>-1.76433742425049</v>
       </c>
     </row>
     <row r="385">
@@ -9831,7 +9831,7 @@
         <v>112742</v>
       </c>
       <c r="E385" t="n">
-        <v>-1.49704865733107</v>
+        <v>-1.6590027293657</v>
       </c>
     </row>
     <row r="386">
@@ -9848,7 +9848,7 @@
         <v>73064</v>
       </c>
       <c r="E386" t="n">
-        <v>-1.80852689010755</v>
+        <v>-1.97543357153869</v>
       </c>
     </row>
     <row r="387">
@@ -9865,7 +9865,7 @@
         <v>74418</v>
       </c>
       <c r="E387" t="n">
-        <v>-2.17301968273821</v>
+        <v>-2.38870853500603</v>
       </c>
     </row>
     <row r="388">
@@ -9882,7 +9882,7 @@
         <v>176898</v>
       </c>
       <c r="E388" t="n">
-        <v>-2.13388700617477</v>
+        <v>-2.31538731150616</v>
       </c>
     </row>
     <row r="389">
@@ -9899,7 +9899,7 @@
         <v>179130</v>
       </c>
       <c r="E389" t="n">
-        <v>-1.68649398146214</v>
+        <v>-1.85421719522498</v>
       </c>
     </row>
     <row r="390">
@@ -9916,7 +9916,7 @@
         <v>153210</v>
       </c>
       <c r="E390" t="n">
-        <v>-1.68909942718407</v>
+        <v>-1.85852061757767</v>
       </c>
     </row>
     <row r="391">
@@ -9933,7 +9933,7 @@
         <v>187344</v>
       </c>
       <c r="E391" t="n">
-        <v>-2.03116032453236</v>
+        <v>-2.21848926609142</v>
       </c>
     </row>
     <row r="392">
@@ -9950,7 +9950,7 @@
         <v>652231</v>
       </c>
       <c r="E392" t="n">
-        <v>-1.22173852183083</v>
+        <v>-1.36192737689024</v>
       </c>
     </row>
     <row r="393">
@@ -9967,7 +9967,7 @@
         <v>136372</v>
       </c>
       <c r="E393" t="n">
-        <v>-2.05294383147064</v>
+        <v>-2.25968984583188</v>
       </c>
     </row>
     <row r="394">
@@ -9984,7 +9984,7 @@
         <v>665967</v>
       </c>
       <c r="E394" t="n">
-        <v>-1.58037947967932</v>
+        <v>-1.71069246222368</v>
       </c>
     </row>
     <row r="395">
@@ -10001,7 +10001,7 @@
         <v>123304</v>
       </c>
       <c r="E395" t="n">
-        <v>-1.665934765356</v>
+        <v>-1.84164084862902</v>
       </c>
     </row>
     <row r="396">
@@ -10018,7 +10018,7 @@
         <v>100679</v>
       </c>
       <c r="E396" t="n">
-        <v>-2.25861231956665</v>
+        <v>-2.42681804933216</v>
       </c>
     </row>
     <row r="397">
@@ -10035,7 +10035,7 @@
         <v>200558</v>
       </c>
       <c r="E397" t="n">
-        <v>-1.54107558149536</v>
+        <v>-1.68286539495544</v>
       </c>
     </row>
     <row r="398">
@@ -10052,7 +10052,7 @@
         <v>396407</v>
       </c>
       <c r="E398" t="n">
-        <v>-1.53554482729168</v>
+        <v>-1.69061880666444</v>
       </c>
     </row>
     <row r="399">
@@ -10069,7 +10069,7 @@
         <v>950714</v>
       </c>
       <c r="E399" t="n">
-        <v>-1.67964188709263</v>
+        <v>-1.83115755089027</v>
       </c>
     </row>
     <row r="400">
@@ -10086,7 +10086,7 @@
         <v>77862</v>
       </c>
       <c r="E400" t="n">
-        <v>-1.26473992171001</v>
+        <v>-1.38554158663835</v>
       </c>
     </row>
     <row r="401">
@@ -10103,7 +10103,7 @@
         <v>119126</v>
       </c>
       <c r="E401" t="n">
-        <v>-1.27916896135662</v>
+        <v>-1.42367392859458</v>
       </c>
     </row>
     <row r="402">
@@ -10120,7 +10120,7 @@
         <v>84029</v>
       </c>
       <c r="E402" t="n">
-        <v>-1.38881474986716</v>
+        <v>-1.51766594233149</v>
       </c>
     </row>
     <row r="403">
@@ -10137,7 +10137,7 @@
         <v>135709</v>
       </c>
       <c r="E403" t="n">
-        <v>-1.84399094264463</v>
+        <v>-2.03424708414265</v>
       </c>
     </row>
     <row r="404">
@@ -10154,7 +10154,7 @@
         <v>113563</v>
       </c>
       <c r="E404" t="n">
-        <v>-1.739402704869</v>
+        <v>-1.87091132375273</v>
       </c>
     </row>
     <row r="405">
@@ -10171,7 +10171,7 @@
         <v>325600</v>
       </c>
       <c r="E405" t="n">
-        <v>-1.31313042202179</v>
+        <v>-1.44573966009584</v>
       </c>
     </row>
     <row r="406">
@@ -10188,7 +10188,7 @@
         <v>1341103</v>
       </c>
       <c r="E406" t="n">
-        <v>-1.2920826911074</v>
+        <v>-1.42427174852412</v>
       </c>
     </row>
     <row r="407">
@@ -10205,7 +10205,7 @@
         <v>136266</v>
       </c>
       <c r="E407" t="n">
-        <v>-2.00752277458457</v>
+        <v>-2.20351197721589</v>
       </c>
     </row>
     <row r="408">
@@ -10222,7 +10222,7 @@
         <v>90271</v>
       </c>
       <c r="E408" t="n">
-        <v>-1.16921544499173</v>
+        <v>-1.30765423267823</v>
       </c>
     </row>
     <row r="409">
@@ -10239,7 +10239,7 @@
         <v>683583</v>
       </c>
       <c r="E409" t="n">
-        <v>-1.20817469568407</v>
+        <v>-1.33447670038467</v>
       </c>
     </row>
     <row r="410">
@@ -10256,7 +10256,7 @@
         <v>876060</v>
       </c>
       <c r="E410" t="n">
-        <v>-1.50221429931433</v>
+        <v>-1.66672374955392</v>
       </c>
     </row>
     <row r="411">
@@ -10273,7 +10273,7 @@
         <v>177281</v>
       </c>
       <c r="E411" t="n">
-        <v>-2.26140767697203</v>
+        <v>-2.42629601166139</v>
       </c>
     </row>
     <row r="412">
@@ -10290,7 +10290,7 @@
         <v>237607</v>
       </c>
       <c r="E412" t="n">
-        <v>-1.33157586944615</v>
+        <v>-1.45636488049915</v>
       </c>
     </row>
     <row r="413">
@@ -10307,7 +10307,7 @@
         <v>193812</v>
       </c>
       <c r="E413" t="n">
-        <v>-1.28563030387217</v>
+        <v>-1.39712833205894</v>
       </c>
     </row>
     <row r="414">
@@ -10324,7 +10324,7 @@
         <v>2313230</v>
       </c>
       <c r="E414" t="n">
-        <v>-1.26958142797026</v>
+        <v>-1.39593821336201</v>
       </c>
     </row>
     <row r="415">
@@ -10341,7 +10341,7 @@
         <v>240369</v>
       </c>
       <c r="E415" t="n">
-        <v>-1.34489211154774</v>
+        <v>-1.4701305292029</v>
       </c>
     </row>
     <row r="416">
@@ -10358,7 +10358,7 @@
         <v>145484</v>
       </c>
       <c r="E416" t="n">
-        <v>-1.41970024590537</v>
+        <v>-1.56486773864797</v>
       </c>
     </row>
     <row r="417">
@@ -10375,7 +10375,7 @@
         <v>105105</v>
       </c>
       <c r="E417" t="n">
-        <v>-1.96070050681088</v>
+        <v>-2.13002579593872</v>
       </c>
     </row>
     <row r="418">
@@ -10392,7 +10392,7 @@
         <v>106656</v>
       </c>
       <c r="E418" t="n">
-        <v>-1.88315276477133</v>
+        <v>-2.07272062436824</v>
       </c>
     </row>
     <row r="419">
@@ -10409,7 +10409,7 @@
         <v>83081</v>
       </c>
       <c r="E419" t="n">
-        <v>-1.51108942657499</v>
+        <v>-1.65776868355665</v>
       </c>
     </row>
     <row r="420">
@@ -10426,7 +10426,7 @@
         <v>253887</v>
       </c>
       <c r="E420" t="n">
-        <v>-1.5359420698275</v>
+        <v>-1.67020193799847</v>
       </c>
     </row>
     <row r="421">
@@ -10443,7 +10443,7 @@
         <v>142699</v>
       </c>
       <c r="E421" t="n">
-        <v>-1.16567719449862</v>
+        <v>-1.3093025162987</v>
       </c>
     </row>
     <row r="422">
@@ -10460,7 +10460,7 @@
         <v>181330</v>
       </c>
       <c r="E422" t="n">
-        <v>-2.21660249313479</v>
+        <v>-2.3787969217831</v>
       </c>
     </row>
     <row r="423">
@@ -10477,7 +10477,7 @@
         <v>143822</v>
       </c>
       <c r="E423" t="n">
-        <v>-1.24170910023609</v>
+        <v>-1.36438166304019</v>
       </c>
     </row>
     <row r="424">
@@ -10494,7 +10494,7 @@
         <v>136090</v>
       </c>
       <c r="E424" t="n">
-        <v>-1.76291092004985</v>
+        <v>-1.93903721980549</v>
       </c>
     </row>
     <row r="425">
@@ -10511,7 +10511,7 @@
         <v>72519</v>
       </c>
       <c r="E425" t="n">
-        <v>-1.89055850280753</v>
+        <v>-2.03491969816372</v>
       </c>
     </row>
     <row r="426">
@@ -10528,7 +10528,7 @@
         <v>117105</v>
       </c>
       <c r="E426" t="n">
-        <v>-1.44813386411152</v>
+        <v>-1.62215541835015</v>
       </c>
     </row>
     <row r="427">
@@ -10545,7 +10545,7 @@
         <v>153533</v>
       </c>
       <c r="E427" t="n">
-        <v>-1.27878878812591</v>
+        <v>-1.40350108955016</v>
       </c>
     </row>
     <row r="428">
@@ -10562,7 +10562,7 @@
         <v>125198</v>
       </c>
       <c r="E428" t="n">
-        <v>-1.86324331477368</v>
+        <v>-2.05423524532466</v>
       </c>
     </row>
     <row r="429">
@@ -10579,7 +10579,7 @@
         <v>285312</v>
       </c>
       <c r="E429" t="n">
-        <v>-2.22132133778276</v>
+        <v>-2.3849974647438</v>
       </c>
     </row>
     <row r="430">
@@ -10596,7 +10596,7 @@
         <v>116783</v>
       </c>
       <c r="E430" t="n">
-        <v>-1.65168253972593</v>
+        <v>-1.77311122559928</v>
       </c>
     </row>
     <row r="431">
@@ -10613,7 +10613,7 @@
         <v>123560</v>
       </c>
       <c r="E431" t="n">
-        <v>-2.13940583069978</v>
+        <v>-2.30678937123516</v>
       </c>
     </row>
     <row r="432">
@@ -10630,7 +10630,7 @@
         <v>94940</v>
       </c>
       <c r="E432" t="n">
-        <v>-1.59758106267406</v>
+        <v>-1.76633722779149</v>
       </c>
     </row>
     <row r="433">
@@ -10647,7 +10647,7 @@
         <v>1511913</v>
       </c>
       <c r="E433" t="n">
-        <v>-1.29183190145613</v>
+        <v>-1.42035524210556</v>
       </c>
     </row>
     <row r="434">
@@ -10664,7 +10664,7 @@
         <v>88488</v>
       </c>
       <c r="E434" t="n">
-        <v>-2.22836434548243</v>
+        <v>-2.38382157847486</v>
       </c>
     </row>
     <row r="435">
@@ -10681,7 +10681,7 @@
         <v>104998</v>
       </c>
       <c r="E435" t="n">
-        <v>-1.6139194884378</v>
+        <v>-1.77475311773098</v>
       </c>
     </row>
     <row r="436">
@@ -10698,7 +10698,7 @@
         <v>136437</v>
       </c>
       <c r="E436" t="n">
-        <v>-1.3974848038585</v>
+        <v>-1.5409888248764</v>
       </c>
     </row>
     <row r="437">
@@ -10715,7 +10715,7 @@
         <v>104745</v>
       </c>
       <c r="E437" t="n">
-        <v>-1.6731730359354</v>
+        <v>-1.85988295478524</v>
       </c>
     </row>
     <row r="438">
@@ -10732,7 +10732,7 @@
         <v>76694</v>
       </c>
       <c r="E438" t="n">
-        <v>-2.39602236174991</v>
+        <v>-2.56761409828659</v>
       </c>
     </row>
     <row r="439">
@@ -10749,7 +10749,7 @@
         <v>87037</v>
       </c>
       <c r="E439" t="n">
-        <v>-1.98428958761482</v>
+        <v>-2.19183971483301</v>
       </c>
     </row>
     <row r="440">
@@ -10766,7 +10766,7 @@
         <v>97840</v>
       </c>
       <c r="E440" t="n">
-        <v>-2.18337142813504</v>
+        <v>-2.37516654911183</v>
       </c>
     </row>
     <row r="441">
@@ -10783,7 +10783,7 @@
         <v>117331</v>
       </c>
       <c r="E441" t="n">
-        <v>-2.21297759813168</v>
+        <v>-2.39535151021005</v>
       </c>
     </row>
     <row r="442">
@@ -10800,7 +10800,7 @@
         <v>84390</v>
       </c>
       <c r="E442" t="n">
-        <v>-2.20995689225147</v>
+        <v>-2.40408189635236</v>
       </c>
     </row>
     <row r="443">
@@ -10817,7 +10817,7 @@
         <v>200538</v>
       </c>
       <c r="E443" t="n">
-        <v>-2.05853766502328</v>
+        <v>-2.2189331256895</v>
       </c>
     </row>
     <row r="444">
@@ -10834,7 +10834,7 @@
         <v>96146</v>
       </c>
       <c r="E444" t="n">
-        <v>-2.20694845024912</v>
+        <v>-2.37491293320628</v>
       </c>
     </row>
     <row r="445">
@@ -10851,7 +10851,7 @@
         <v>113921</v>
       </c>
       <c r="E445" t="n">
-        <v>-2.11557589539549</v>
+        <v>-2.28192766135888</v>
       </c>
     </row>
     <row r="446">
@@ -10868,7 +10868,7 @@
         <v>136166</v>
       </c>
       <c r="E446" t="n">
-        <v>-1.84667544592724</v>
+        <v>-1.99725047225355</v>
       </c>
     </row>
     <row r="447">
@@ -10885,7 +10885,7 @@
         <v>160035</v>
       </c>
       <c r="E447" t="n">
-        <v>-1.90568692463578</v>
+        <v>-2.05386569333258</v>
       </c>
     </row>
     <row r="448">
@@ -10902,7 +10902,7 @@
         <v>240397</v>
       </c>
       <c r="E448" t="n">
-        <v>-1.9406239678429</v>
+        <v>-2.13954826679634</v>
       </c>
     </row>
     <row r="449">
@@ -10919,7 +10919,7 @@
         <v>134669</v>
       </c>
       <c r="E449" t="n">
-        <v>-1.37233065655504</v>
+        <v>-1.4990903317864</v>
       </c>
     </row>
     <row r="450">
@@ -10936,7 +10936,7 @@
         <v>80995</v>
       </c>
       <c r="E450" t="n">
-        <v>-1.64892386690541</v>
+        <v>-1.78349893646148</v>
       </c>
     </row>
     <row r="451">
@@ -10953,7 +10953,7 @@
         <v>179388</v>
       </c>
       <c r="E451" t="n">
-        <v>-1.44326022191207</v>
+        <v>-1.56761840606336</v>
       </c>
     </row>
     <row r="452">
@@ -10970,7 +10970,7 @@
         <v>244703</v>
       </c>
       <c r="E452" t="n">
-        <v>-1.44170516358199</v>
+        <v>-1.57421780433136</v>
       </c>
     </row>
     <row r="453">
@@ -10987,7 +10987,7 @@
         <v>94572</v>
       </c>
       <c r="E453" t="n">
-        <v>-1.38462200618741</v>
+        <v>-1.50787012199701</v>
       </c>
     </row>
     <row r="454">
@@ -11004,7 +11004,7 @@
         <v>227032</v>
       </c>
       <c r="E454" t="n">
-        <v>-1.43139144212994</v>
+        <v>-1.55806669900447</v>
       </c>
     </row>
     <row r="455">
@@ -11021,7 +11021,7 @@
         <v>99837</v>
       </c>
       <c r="E455" t="n">
-        <v>-1.58902285905074</v>
+        <v>-1.72269640590816</v>
       </c>
     </row>
     <row r="456">
@@ -11038,7 +11038,7 @@
         <v>90237</v>
       </c>
       <c r="E456" t="n">
-        <v>-1.79834542563429</v>
+        <v>-1.96669320293465</v>
       </c>
     </row>
     <row r="457">
@@ -11055,7 +11055,7 @@
         <v>450435</v>
       </c>
       <c r="E457" t="n">
-        <v>-1.99154862670117</v>
+        <v>-2.15342582468628</v>
       </c>
     </row>
     <row r="458">
@@ -11072,7 +11072,7 @@
         <v>79619</v>
       </c>
       <c r="E458" t="n">
-        <v>-1.989362404341</v>
+        <v>-2.13569721550648</v>
       </c>
     </row>
     <row r="459">
@@ -11089,7 +11089,7 @@
         <v>144459</v>
       </c>
       <c r="E459" t="n">
-        <v>-2.11837733221075</v>
+        <v>-2.27072959260772</v>
       </c>
     </row>
     <row r="460">
@@ -11106,7 +11106,7 @@
         <v>89044</v>
       </c>
       <c r="E460" t="n">
-        <v>-2.13539264989214</v>
+        <v>-2.31111207819581</v>
       </c>
     </row>
     <row r="461">
@@ -11123,7 +11123,7 @@
         <v>110086</v>
       </c>
       <c r="E461" t="n">
-        <v>-2.06912956075827</v>
+        <v>-2.26843148347459</v>
       </c>
     </row>
     <row r="462">
@@ -11140,7 +11140,7 @@
         <v>96691</v>
       </c>
       <c r="E462" t="n">
-        <v>-1.86479234758988</v>
+        <v>-1.99232003005956</v>
       </c>
     </row>
     <row r="463">
@@ -11157,7 +11157,7 @@
         <v>81601</v>
       </c>
       <c r="E463" t="n">
-        <v>-1.9664121954207</v>
+        <v>-2.15097857978543</v>
       </c>
     </row>
     <row r="464">
@@ -11174,7 +11174,7 @@
         <v>128463</v>
       </c>
       <c r="E464" t="n">
-        <v>-1.92234636285289</v>
+        <v>-2.06231561218768</v>
       </c>
     </row>
     <row r="465">
@@ -11191,7 +11191,7 @@
         <v>101372</v>
       </c>
       <c r="E465" t="n">
-        <v>-1.98579768992348</v>
+        <v>-2.12166578308855</v>
       </c>
     </row>
     <row r="466">
@@ -11208,7 +11208,7 @@
         <v>724764</v>
       </c>
       <c r="E466" t="n">
-        <v>-2.14189987033377</v>
+        <v>-2.29133540420436</v>
       </c>
     </row>
     <row r="467">
@@ -11225,7 +11225,7 @@
         <v>217096</v>
       </c>
       <c r="E467" t="n">
-        <v>-2.18413319572478</v>
+        <v>-2.36358348461007</v>
       </c>
     </row>
     <row r="468">
@@ -11242,7 +11242,7 @@
         <v>97858</v>
       </c>
       <c r="E468" t="n">
-        <v>-2.1916404205482</v>
+        <v>-2.37106801491581</v>
       </c>
     </row>
     <row r="469">
@@ -11259,7 +11259,7 @@
         <v>213426</v>
       </c>
       <c r="E469" t="n">
-        <v>-2.01929845828084</v>
+        <v>-2.1814757247402</v>
       </c>
     </row>
     <row r="470">
@@ -11276,7 +11276,7 @@
         <v>175661</v>
       </c>
       <c r="E470" t="n">
-        <v>-2.07051052666964</v>
+        <v>-2.24713963233941</v>
       </c>
     </row>
     <row r="471">
@@ -11293,7 +11293,7 @@
         <v>93669</v>
       </c>
       <c r="E471" t="n">
-        <v>-1.48508854253616</v>
+        <v>-1.63337160235595</v>
       </c>
     </row>
     <row r="472">
@@ -11310,7 +11310,7 @@
         <v>73984</v>
       </c>
       <c r="E472" t="n">
-        <v>-2.41997322403525</v>
+        <v>-2.60282136382048</v>
       </c>
     </row>
     <row r="473">
@@ -11327,7 +11327,7 @@
         <v>105114</v>
       </c>
       <c r="E473" t="n">
-        <v>-2.0744213293634</v>
+        <v>-2.28062788979069</v>
       </c>
     </row>
     <row r="474">
@@ -11344,7 +11344,7 @@
         <v>99875</v>
       </c>
       <c r="E474" t="n">
-        <v>-1.78482499549586</v>
+        <v>-1.95031783146132</v>
       </c>
     </row>
     <row r="475">
@@ -11361,7 +11361,7 @@
         <v>255239</v>
       </c>
       <c r="E475" t="n">
-        <v>-2.18458432559342</v>
+        <v>-2.38139274277209</v>
       </c>
     </row>
     <row r="476">
@@ -11378,7 +11378,7 @@
         <v>595365</v>
       </c>
       <c r="E476" t="n">
-        <v>-1.36198713099706</v>
+        <v>-1.4864989939885</v>
       </c>
     </row>
     <row r="477">
@@ -11395,7 +11395,7 @@
         <v>77555</v>
       </c>
       <c r="E477" t="n">
-        <v>-1.76589721699236</v>
+        <v>-1.94790420077453</v>
       </c>
     </row>
     <row r="478">
@@ -11412,7 +11412,7 @@
         <v>72483</v>
       </c>
       <c r="E478" t="n">
-        <v>-2.36517549599427</v>
+        <v>-2.54243155347454</v>
       </c>
     </row>
   </sheetData>
